--- a/5_results/5_1_original/predictors_set_5.xlsx
+++ b/5_results/5_1_original/predictors_set_5.xlsx
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.01376557350158691</v>
+        <v>0.01377439498901367</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02173161506652832</v>
+        <v>0.009591817855834961</v>
       </c>
       <c r="R2" t="n">
-        <v>2.171046257019043</v>
+        <v>2.64513373374939</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01376557350158691</v>
+        <v>0.01377439498901367</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02173161506652832</v>
+        <v>0.009591817855834961</v>
       </c>
       <c r="U2" t="n">
-        <v>2.171046257019043</v>
+        <v>2.64513373374939</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -864,18 +864,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.01400423049926758</v>
+        <v>0.0150303840637207</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1.676561832427979</v>
+        <v>2.721513986587524</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01400423049926758</v>
+        <v>0.0150303840637207</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>1.676561832427979</v>
+        <v>2.721513986587524</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -1008,18 +1008,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.007522106170654297</v>
+        <v>0.008561134338378906</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.1647837162017822</v>
+        <v>0.2473049163818359</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007522106170654297</v>
+        <v>0.008561134338378906</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.1647837162017822</v>
+        <v>0.2473049163818359</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1154,22 +1154,22 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.01578450202941895</v>
+        <v>0.01577639579772949</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.01718878746032715</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73864483833313</v>
+        <v>2.016695976257324</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01578450202941895</v>
+        <v>0.01577639579772949</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.01718878746032715</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73864483833313</v>
+        <v>2.016695976257324</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1304,22 +1304,22 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.007799148559570312</v>
+        <v>0.01178145408630371</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01590394973754883</v>
+        <v>0.009767293930053711</v>
       </c>
       <c r="R6" t="n">
-        <v>1.675156831741333</v>
+        <v>2.323772668838501</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007799148559570312</v>
+        <v>0.01178145408630371</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01590394973754883</v>
+        <v>0.009767293930053711</v>
       </c>
       <c r="U6" t="n">
-        <v>1.675156831741333</v>
+        <v>2.323772668838501</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1452,18 +1452,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.06016659736633301</v>
+        <v>0.06233906745910645</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>0.7491486072540283</v>
+        <v>0.7926292419433594</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06016659736633301</v>
+        <v>0.06233906745910645</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.7491486072540283</v>
+        <v>0.7926292419433594</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1596,18 +1596,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.005578517913818359</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.1902444362640381</v>
+        <v>0.2251827716827393</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005578517913818359</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.1902444362640381</v>
+        <v>0.2251827716827393</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1740,18 +1740,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.008011817932128906</v>
+        <v>0.008014678955078125</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.2225112915039062</v>
+        <v>0.2558908462524414</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008011817932128906</v>
+        <v>0.008014678955078125</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.2225112915039062</v>
+        <v>0.2558908462524414</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1884,18 +1884,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.01152801513671875</v>
+        <v>0.01100730895996094</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.2449314594268799</v>
+        <v>0.3780395984649658</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01152801513671875</v>
+        <v>0.01100730895996094</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>0.2449314594268799</v>
+        <v>0.3780395984649658</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2028,18 +2028,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.005751132965087891</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.1624929904937744</v>
+        <v>0.2467434406280518</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005751132965087891</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.1624929904937744</v>
+        <v>0.2467434406280518</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2176,14 +2176,14 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>3.048435926437378</v>
+        <v>4.032636880874634</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.048435926437378</v>
+        <v>4.032636880874634</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LightGBM_r130</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2280,37 +2280,37 @@
         <v>0.96</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I13" t="n">
         <v>0.8857142857142857</v>
       </c>
       <c r="J13" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K13" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2359104511482089</v>
+        <v>-0.2488418621074096</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4586397444844935</v>
+        <v>0.4324972255234678</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9121713934213934</v>
+        <v>0.8337813806563806</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2318,22 +2318,22 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.003907203674316406</v>
+        <v>0.006310462951660156</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002006053924560547</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3132388591766357</v>
+        <v>0.5969126224517822</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003907203674316406</v>
+        <v>0.006310462951660156</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002006053924560547</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3132388591766357</v>
+        <v>0.5969126224517822</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>19</v>
@@ -2354,16 +2354,16 @@
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>262890</v>
+        <v>312982</v>
       </c>
       <c r="AC13" t="n">
-        <v>262890</v>
+        <v>312982</v>
       </c>
       <c r="AD13" t="n">
-        <v>262890</v>
+        <v>312982</v>
       </c>
       <c r="AE13" t="n">
-        <v>262890</v>
+        <v>312982</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.05}</t>
+          <t>{'learning_rate': 0.04711573688184715, 'extra_trees': False, 'feature_fraction': 0.6245777099925497, 'min_data_in_leaf': 56, 'num_leaves': 89}</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 235}</t>
+          <t>{'num_boost_round': 618}</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LightGBM_r130</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2430,37 +2430,37 @@
         <v>0.96</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I14" t="n">
         <v>0.8857142857142857</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="K14" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2488418621074096</v>
+        <v>-0.2359104511482089</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4324972255234678</v>
+        <v>0.4586397444844935</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8337813806563806</v>
+        <v>0.9121713934213934</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.004010438919067383</v>
+        <v>0.007254362106323242</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.003779172897338867</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4123151302337646</v>
+        <v>0.4215893745422363</v>
       </c>
       <c r="S14" t="n">
-        <v>0.004010438919067383</v>
+        <v>0.007254362106323242</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.003779172897338867</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4123151302337646</v>
+        <v>0.4215893745422363</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
@@ -2504,16 +2504,16 @@
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>312982</v>
+        <v>262890</v>
       </c>
       <c r="AC14" t="n">
-        <v>312982</v>
+        <v>262890</v>
       </c>
       <c r="AD14" t="n">
-        <v>312982</v>
+        <v>262890</v>
       </c>
       <c r="AE14" t="n">
-        <v>312982</v>
+        <v>262890</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.04711573688184715, 'extra_trees': False, 'feature_fraction': 0.6245777099925497, 'min_data_in_leaf': 56, 'num_leaves': 89}</t>
+          <t>{'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 618}</t>
+          <t>{'num_boost_round': 235}</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2616,18 +2616,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.01000547409057617</v>
+        <v>0.01965522766113281</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.072580814361572</v>
+        <v>1.420040130615234</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01000547409057617</v>
+        <v>0.01965522766113281</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>1.072580814361572</v>
+        <v>1.420040130615234</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2760,18 +2760,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.02092242240905762</v>
+        <v>0.02168869972229004</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.3198237419128418</v>
+        <v>0.4406986236572266</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02092242240905762</v>
+        <v>0.02168869972229004</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.3198237419128418</v>
+        <v>0.4406986236572266</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2904,18 +2904,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.01355385780334473</v>
+        <v>0.01002192497253418</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>9.745216131210327</v>
+        <v>12.66845870018005</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01355385780334473</v>
+        <v>0.01002192497253418</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>9.745216131210327</v>
+        <v>12.66845870018005</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3048,18 +3048,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.01355504989624023</v>
+        <v>0.01185035705566406</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.8396387100219727</v>
+        <v>1.097119808197021</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01355504989624023</v>
+        <v>0.01185035705566406</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.8396387100219727</v>
+        <v>1.097119808197021</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3194,22 +3194,22 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.01381254196166992</v>
+        <v>0.01577401161193848</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008009910583496094</v>
+        <v>0.01014041900634766</v>
       </c>
       <c r="R19" t="n">
-        <v>1.668295621871948</v>
+        <v>2.333704471588135</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01381254196166992</v>
+        <v>0.01577401161193848</v>
       </c>
       <c r="T19" t="n">
-        <v>0.008009910583496094</v>
+        <v>0.01014041900634766</v>
       </c>
       <c r="U19" t="n">
-        <v>1.668295621871948</v>
+        <v>2.333704471588135</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3346,14 +3346,14 @@
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.623834609985352</v>
+        <v>2.149914979934692</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1.623834609985352</v>
+        <v>2.149914979934692</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3486,18 +3486,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.009760856628417969</v>
+        <v>0.01152443885803223</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.07661342620849609</v>
+        <v>0.2136411666870117</v>
       </c>
       <c r="S21" t="n">
-        <v>0.009760856628417969</v>
+        <v>0.01152443885803223</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.07661342620849609</v>
+        <v>0.2136411666870117</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3630,18 +3630,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.007219791412353516</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.1893274784088135</v>
+        <v>0.2266240119934082</v>
       </c>
       <c r="S22" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.007219791412353516</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.1893274784088135</v>
+        <v>0.2266240119934082</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.007155656814575195</v>
+        <v>0.008014202117919922</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.004261493682861328</v>
+        <v>0.005084037780761719</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4819657802581787</v>
+        <v>0.6670629978179932</v>
       </c>
       <c r="S23" t="n">
-        <v>0.007155656814575195</v>
+        <v>0.008014202117919922</v>
       </c>
       <c r="T23" t="n">
-        <v>0.004261493682861328</v>
+        <v>0.005084037780761719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4819657802581787</v>
+        <v>0.6670629978179932</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3926,22 +3926,22 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.009715795516967773</v>
+        <v>0.00976872444152832</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004162073135375977</v>
+        <v>0.008879423141479492</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463013648986816</v>
+        <v>0.6729333400726318</v>
       </c>
       <c r="S24" t="n">
-        <v>0.009715795516967773</v>
+        <v>0.00976872444152832</v>
       </c>
       <c r="T24" t="n">
-        <v>0.004162073135375977</v>
+        <v>0.008879423141479492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5463013648986816</v>
+        <v>0.6729333400726318</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -4076,22 +4076,22 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.01054477691650391</v>
+        <v>0.01202201843261719</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.008016824722290039</v>
       </c>
       <c r="R25" t="n">
-        <v>1.821050405502319</v>
+        <v>2.382769107818604</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01054477691650391</v>
+        <v>0.01202201843261719</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.008016824722290039</v>
       </c>
       <c r="U25" t="n">
-        <v>1.821050405502319</v>
+        <v>2.382769107818604</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4224,18 +4224,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0315546989440918</v>
+        <v>0.03154706954956055</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.5191664695739746</v>
+        <v>0.6649200916290283</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0315546989440918</v>
+        <v>0.03154706954956055</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.5191664695739746</v>
+        <v>0.6649200916290283</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4368,18 +4368,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.009753227233886719</v>
+        <v>0.01176905632019043</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>0.4534626007080078</v>
+        <v>0.5616061687469482</v>
       </c>
       <c r="S27" t="n">
-        <v>0.009753227233886719</v>
+        <v>0.01176905632019043</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.4534626007080078</v>
+        <v>0.5616061687469482</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4512,18 +4512,18 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0056610107421875</v>
+        <v>0.006286859512329102</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.1752064228057861</v>
+        <v>0.2180724143981934</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0056610107421875</v>
+        <v>0.006286859512329102</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.1752064228057861</v>
+        <v>0.2180724143981934</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4656,18 +4656,18 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.001504898071289062</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.2068972587585449</v>
+        <v>0.2274966239929199</v>
       </c>
       <c r="S29" t="n">
-        <v>0.001504898071289062</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.2068972587585449</v>
+        <v>0.2274966239929199</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4754,7 +4754,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CatBoost_r70_FULL</t>
+          <t>CatBoost_r198_FULL</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4788,10 +4788,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.266362117655568</v>
+        <v>-0.280758421984283</v>
       </c>
       <c r="M30" t="n">
-        <v>0.397612997570858</v>
+        <v>0.3694025144297814</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
@@ -4800,18 +4800,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>0.4164104461669922</v>
+        <v>0.4651119709014893</v>
       </c>
       <c r="S30" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.4164104461669922</v>
+        <v>0.4651119709014893</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="Y30" t="n">
         <v>19</v>
@@ -4832,22 +4832,22 @@
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>385056</v>
+        <v>271638</v>
       </c>
       <c r="AC30" t="n">
-        <v>385056</v>
+        <v>271638</v>
       </c>
       <c r="AD30" t="n">
-        <v>385056</v>
+        <v>271638</v>
       </c>
       <c r="AE30" t="n">
-        <v>385056</v>
+        <v>271638</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>{'iterations': 183, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 233, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>{'iterations': 183}</t>
+          <t>{'iterations': 233}</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
@@ -4891,14 +4891,14 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['WeightedEnsemble_L2_FULL']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CatBoost_r198_FULL</t>
+          <t>CatBoost_r86_FULL</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4908,34 +4908,34 @@
         <v>0.9466666666666668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.8807692307692307</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I31" t="n">
         <v>0.8617424242424241</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.280758421984283</v>
+        <v>-0.2078032261758548</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3694025144297814</v>
+        <v>0.5166414719215043</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
@@ -4944,18 +4944,18 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.00200653076171875</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>0.3434600830078125</v>
+        <v>1.299063205718994</v>
       </c>
       <c r="S31" t="n">
-        <v>0.00200653076171875</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.3434600830078125</v>
+        <v>1.299063205718994</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="Y31" t="n">
         <v>19</v>
@@ -4976,22 +4976,22 @@
         <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>271638</v>
+        <v>1573256</v>
       </c>
       <c r="AC31" t="n">
-        <v>271638</v>
+        <v>1573256</v>
       </c>
       <c r="AD31" t="n">
-        <v>271638</v>
+        <v>1573256</v>
       </c>
       <c r="AE31" t="n">
-        <v>271638</v>
+        <v>1573256</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -5006,12 +5006,12 @@
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>{'iterations': 233, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 377, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>{'iterations': 233}</t>
+          <t>{'iterations': 377}</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
@@ -5035,14 +5035,14 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>['WeightedEnsemble_L2_FULL']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CatBoost_r167_FULL</t>
+          <t>CatBoost_r70_FULL</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5052,34 +5052,34 @@
         <v>0.9466666666666668</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I32" t="n">
         <v>0.8617424242424241</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K32" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.2281250321938158</v>
+        <v>-0.266362117655568</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4745427084057918</v>
+        <v>0.397612997570858</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
@@ -5088,18 +5088,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004013776779174805</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.4011261463165283</v>
+        <v>0.5740272998809814</v>
       </c>
       <c r="S32" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004013776779174805</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.4011261463165283</v>
+        <v>0.5740272998809814</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y32" t="n">
         <v>19</v>
@@ -5120,16 +5120,16 @@
         <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>467486</v>
+        <v>385056</v>
       </c>
       <c r="AC32" t="n">
-        <v>467486</v>
+        <v>385056</v>
       </c>
       <c r="AD32" t="n">
-        <v>467486</v>
+        <v>385056</v>
       </c>
       <c r="AE32" t="n">
-        <v>467486</v>
+        <v>385056</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>{'iterations': 212, 'learning_rate': 0.08481607830570326, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.522712492188319, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 183, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>{'iterations': 212}</t>
+          <t>{'iterations': 183}</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -5186,7 +5186,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CatBoost_r50</t>
+          <t>CatBoost_r167_FULL</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5199,13 +5199,13 @@
         <v>0.8709677419354839</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0.8709677419354839</v>
@@ -5214,42 +5214,36 @@
         <v>0.8617424242424241</v>
       </c>
       <c r="J33" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.299300888418483</v>
+        <v>-0.2281250321938158</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3336608828551488</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.903686506168124</v>
-      </c>
+        <v>0.4745427084057918</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.004011631011962891</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004050016403198242</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.7160851955413818</v>
+        <v>0.4479439258575439</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004011631011962891</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004050016403198242</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.7160851955413818</v>
+        <v>0.4479439258575439</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5258,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="Y33" t="n">
         <v>19</v>
@@ -5270,16 +5264,16 @@
         <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>121591</v>
+        <v>467486</v>
       </c>
       <c r="AC33" t="n">
-        <v>121591</v>
+        <v>467486</v>
       </c>
       <c r="AD33" t="n">
-        <v>121591</v>
+        <v>467486</v>
       </c>
       <c r="AE33" t="n">
-        <v>121591</v>
+        <v>467486</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -5300,17 +5294,17 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 212, 'learning_rate': 0.08481607830570326, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.522712492188319, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>{'iterations': 116}</t>
+          <t>{'iterations': 212}</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
@@ -5382,18 +5376,18 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.004086017608642578</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>0.4972274303436279</v>
+        <v>0.7261202335357666</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.004086017608642578</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.4972274303436279</v>
+        <v>0.7261202335357666</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5480,7 +5474,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CatBoost_r86_FULL</t>
+          <t>CatBoost_r50</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5490,54 +5484,60 @@
         <v>0.9466666666666668</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8807692307692307</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I35" t="n">
         <v>0.8617424242424241</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.2078032261758548</v>
+        <v>-0.299300888418483</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5166414719215043</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0.3336608828551488</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.903686506168124</v>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.004230976104736328</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>0.005058526992797852</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.01236343383789062</v>
+      </c>
       <c r="R35" t="n">
-        <v>0.979619026184082</v>
+        <v>0.8055710792541504</v>
       </c>
       <c r="S35" t="n">
-        <v>0.004230976104736328</v>
-      </c>
-      <c r="T35" t="inlineStr"/>
+        <v>0.005058526992797852</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.01236343383789062</v>
+      </c>
       <c r="U35" t="n">
-        <v>0.979619026184082</v>
+        <v>0.8055710792541504</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5558,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>1573256</v>
+        <v>121591</v>
       </c>
       <c r="AC35" t="n">
-        <v>1573256</v>
+        <v>121591</v>
       </c>
       <c r="AD35" t="n">
-        <v>1573256</v>
+        <v>121591</v>
       </c>
       <c r="AE35" t="n">
-        <v>1573256</v>
+        <v>121591</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5588,17 +5588,17 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>{'iterations': 377, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>{'iterations': 377}</t>
+          <t>{'iterations': 116}</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
@@ -5670,18 +5670,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.006015539169311523</v>
+        <v>0.005760431289672852</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.551322221755981</v>
+        <v>2.243571281433105</v>
       </c>
       <c r="S36" t="n">
-        <v>0.006015539169311523</v>
+        <v>0.005760431289672852</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>1.551322221755981</v>
+        <v>2.243571281433105</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5816,22 +5816,22 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.01353836059570312</v>
+        <v>0.01578569412231445</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="R37" t="n">
-        <v>2.122427701950073</v>
+        <v>2.561500310897827</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01353836059570312</v>
+        <v>0.01578569412231445</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="U37" t="n">
-        <v>2.122427701950073</v>
+        <v>2.561500310897827</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5964,18 +5964,18 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.008011102676391602</v>
+        <v>0.01191377639770508</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.068649053573608</v>
+        <v>1.412514209747314</v>
       </c>
       <c r="S38" t="n">
-        <v>0.008011102676391602</v>
+        <v>0.01191377639770508</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>1.068649053573608</v>
+        <v>1.412514209747314</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6062,7 +6062,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CatBoost_r50_FULL</t>
+          <t>CatBoost_r5_FULL</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6096,10 +6096,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2713794341540982</v>
+        <v>-0.3075264966372038</v>
       </c>
       <c r="M39" t="n">
-        <v>0.387735044524301</v>
+        <v>0.3180164912296038</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
@@ -6108,18 +6108,18 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>0.1368188858032227</v>
+        <v>0.351759672164917</v>
       </c>
       <c r="S39" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.1368188858032227</v>
+        <v>0.351759672164917</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="Y39" t="n">
         <v>19</v>
@@ -6140,16 +6140,16 @@
         <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>97448</v>
+        <v>86330</v>
       </c>
       <c r="AC39" t="n">
-        <v>97448</v>
+        <v>86330</v>
       </c>
       <c r="AD39" t="n">
-        <v>97448</v>
+        <v>86330</v>
       </c>
       <c r="AE39" t="n">
-        <v>97448</v>
+        <v>86330</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -6170,12 +6170,12 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>{'iterations': 116, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 225, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>{'iterations': 116}</t>
+          <t>{'iterations': 225}</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -6252,18 +6252,18 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.003007411956787109</v>
+        <v>0.002997159957885742</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.1440470218658447</v>
+        <v>0.199244499206543</v>
       </c>
       <c r="S40" t="n">
-        <v>0.003007411956787109</v>
+        <v>0.002997159957885742</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.1440470218658447</v>
+        <v>0.199244499206543</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6350,7 +6350,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CatBoost_r5_FULL</t>
+          <t>CatBoost_r177_FULL</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6360,34 +6360,34 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I41" t="n">
         <v>0.8541666666666665</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.3075264966372038</v>
+        <v>-0.2547545574283148</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3180164912296038</v>
+        <v>0.4206561805522041</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
@@ -6396,18 +6396,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.003751277923583984</v>
+        <v>0.003751993179321289</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.2840983867645264</v>
+        <v>0.1639618873596191</v>
       </c>
       <c r="S41" t="n">
-        <v>0.003751277923583984</v>
+        <v>0.003751993179321289</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.2840983867645264</v>
+        <v>0.1639618873596191</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -6428,16 +6428,16 @@
         <v>1</v>
       </c>
       <c r="AB41" t="n">
-        <v>86330</v>
+        <v>176022</v>
       </c>
       <c r="AC41" t="n">
-        <v>86330</v>
+        <v>176022</v>
       </c>
       <c r="AD41" t="n">
-        <v>86330</v>
+        <v>176022</v>
       </c>
       <c r="AE41" t="n">
-        <v>86330</v>
+        <v>176022</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
@@ -6458,12 +6458,12 @@
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>{'iterations': 225, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 148, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>{'iterations': 225}</t>
+          <t>{'iterations': 148}</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
@@ -6494,7 +6494,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CatBoost_r177_FULL</t>
+          <t>CatBoost_r50_FULL</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6504,34 +6504,34 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I42" t="n">
         <v>0.8541666666666665</v>
       </c>
       <c r="J42" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.2547545574283148</v>
+        <v>-0.2713794341540982</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4206561805522041</v>
+        <v>0.387735044524301</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
@@ -6540,18 +6540,18 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.004050970077514648</v>
+        <v>0.004007101058959961</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.1271777153015137</v>
+        <v>0.1946103572845459</v>
       </c>
       <c r="S42" t="n">
-        <v>0.004050970077514648</v>
+        <v>0.004007101058959961</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.1271777153015137</v>
+        <v>0.1946103572845459</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Y42" t="n">
         <v>19</v>
@@ -6572,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>176022</v>
+        <v>97448</v>
       </c>
       <c r="AC42" t="n">
-        <v>176022</v>
+        <v>97448</v>
       </c>
       <c r="AD42" t="n">
-        <v>176022</v>
+        <v>97448</v>
       </c>
       <c r="AE42" t="n">
-        <v>176022</v>
+        <v>97448</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
@@ -6602,12 +6602,12 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>{'iterations': 148, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 116, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>{'iterations': 148}</t>
+          <t>{'iterations': 116}</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CatBoost_r6_FULL</t>
+          <t>CatBoost_r163</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6672,30 +6672,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.2808742349801768</v>
+        <v>-0.3814718241023634</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3691772617232077</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0.1830099687221347</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8969613855643268</v>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.002004623413085938</v>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
       <c r="R43" t="n">
-        <v>0.116058349609375</v>
+        <v>0.7678759098052979</v>
       </c>
       <c r="S43" t="n">
-        <v>0.002004623413085938</v>
-      </c>
-      <c r="T43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
       <c r="U43" t="n">
-        <v>0.116058349609375</v>
+        <v>0.7678759098052979</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6704,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="Y43" t="n">
         <v>19</v>
@@ -6716,16 +6722,16 @@
         <v>1</v>
       </c>
       <c r="AB43" t="n">
-        <v>69726</v>
+        <v>120581</v>
       </c>
       <c r="AC43" t="n">
-        <v>69726</v>
+        <v>120581</v>
       </c>
       <c r="AD43" t="n">
-        <v>69726</v>
+        <v>120581</v>
       </c>
       <c r="AE43" t="n">
-        <v>69726</v>
+        <v>120581</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
@@ -6746,17 +6752,17 @@
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>{'iterations': 78, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>{'iterations': 78}</t>
+          <t>{'iterations': 142}</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
@@ -6782,7 +6788,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CatBoost_r163</t>
+          <t>CatBoost_r6_FULL</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6816,36 +6822,30 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.3814718241023634</v>
+        <v>-0.2808742349801768</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1830099687221347</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.8969613855643268</v>
-      </c>
+        <v>0.3691772617232077</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.004191875457763672</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.01610803604125977</v>
-      </c>
+        <v>0.004006385803222656</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>0.6413946151733398</v>
+        <v>0.1414015293121338</v>
       </c>
       <c r="S44" t="n">
-        <v>0.004191875457763672</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.01610803604125977</v>
-      </c>
+        <v>0.004006385803222656</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.6413946151733398</v>
+        <v>0.1414015293121338</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
@@ -6866,16 +6866,16 @@
         <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>120581</v>
+        <v>69726</v>
       </c>
       <c r="AC44" t="n">
-        <v>120581</v>
+        <v>69726</v>
       </c>
       <c r="AD44" t="n">
-        <v>120581</v>
+        <v>69726</v>
       </c>
       <c r="AE44" t="n">
-        <v>120581</v>
+        <v>69726</v>
       </c>
       <c r="AF44" t="n">
         <v>0</v>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 78, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>{'iterations': 142}</t>
+          <t>{'iterations': 78}</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
@@ -6978,18 +6978,18 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.01801085472106934</v>
+        <v>0.02589583396911621</v>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>0.573559045791626</v>
+        <v>0.7155923843383789</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01801085472106934</v>
+        <v>0.02589583396911621</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>0.573559045791626</v>
+        <v>0.7155923843383789</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7076,7 +7076,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CatBoost_r49_FULL</t>
+          <t>CatBoost_r163_FULL</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -7110,10 +7110,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.3018351957437629</v>
+        <v>-0.2582280122481886</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3288272392266961</v>
+        <v>0.4137327691415646</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
@@ -7122,18 +7122,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.002006053924560547</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.2547488212585449</v>
+        <v>0.1435267925262451</v>
       </c>
       <c r="S46" t="n">
-        <v>0.002006053924560547</v>
+        <v>0</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.2547488212585449</v>
+        <v>0.1435267925262451</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="Y46" t="n">
         <v>19</v>
@@ -7154,16 +7154,16 @@
         <v>1</v>
       </c>
       <c r="AB46" t="n">
-        <v>82708</v>
+        <v>95902</v>
       </c>
       <c r="AC46" t="n">
-        <v>82708</v>
+        <v>95902</v>
       </c>
       <c r="AD46" t="n">
-        <v>82708</v>
+        <v>95902</v>
       </c>
       <c r="AE46" t="n">
-        <v>82708</v>
+        <v>95902</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -7184,12 +7184,12 @@
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>{'iterations': 214, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 142, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>{'iterations': 214}</t>
+          <t>{'iterations': 142}</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
@@ -7220,7 +7220,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CatBoost_r163_FULL</t>
+          <t>CatBoost_r49_FULL</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -7254,10 +7254,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.2582280122481886</v>
+        <v>-0.3018351957437629</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4137327691415646</v>
+        <v>0.3288272392266961</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
@@ -7266,18 +7266,18 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.01572895050048828</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0.1141622066497803</v>
+        <v>0.348017692565918</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01572895050048828</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>0.1141622066497803</v>
+        <v>0.348017692565918</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7286,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="Y47" t="n">
         <v>19</v>
@@ -7298,16 +7298,16 @@
         <v>1</v>
       </c>
       <c r="AB47" t="n">
-        <v>95902</v>
+        <v>82708</v>
       </c>
       <c r="AC47" t="n">
-        <v>95902</v>
+        <v>82708</v>
       </c>
       <c r="AD47" t="n">
-        <v>95902</v>
+        <v>82708</v>
       </c>
       <c r="AE47" t="n">
-        <v>95902</v>
+        <v>82708</v>
       </c>
       <c r="AF47" t="n">
         <v>0</v>
@@ -7328,12 +7328,12 @@
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>{'iterations': 142, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 214, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>{'iterations': 142}</t>
+          <t>{'iterations': 214}</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
@@ -7410,18 +7410,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.06652927398681641</v>
+        <v>0.0719609260559082</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.8913767337799072</v>
+        <v>1.010789394378662</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06652927398681641</v>
+        <v>0.0719609260559082</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.8913767337799072</v>
+        <v>1.010789394378662</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7556,22 +7556,22 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.01376819610595703</v>
+        <v>0.01480650901794434</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01575922966003418</v>
+        <v>0.009115695953369141</v>
       </c>
       <c r="R49" t="n">
-        <v>1.445494413375854</v>
+        <v>2.015650749206543</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01376819610595703</v>
+        <v>0.01480650901794434</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01575922966003418</v>
+        <v>0.009115695953369141</v>
       </c>
       <c r="U49" t="n">
-        <v>1.445494413375854</v>
+        <v>2.015650749206543</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7706,22 +7706,22 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.003751754760742188</v>
+        <v>0.003748416900634766</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="R50" t="n">
-        <v>0.644951343536377</v>
+        <v>0.7589976787567139</v>
       </c>
       <c r="S50" t="n">
-        <v>0.003751754760742188</v>
+        <v>0.003748416900634766</v>
       </c>
       <c r="T50" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="U50" t="n">
-        <v>0.644951343536377</v>
+        <v>0.7589976787567139</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7856,22 +7856,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.01353549957275391</v>
+        <v>0.01433777809143066</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0208885669708252</v>
+        <v>0.01177144050598145</v>
       </c>
       <c r="R51" t="n">
-        <v>1.182779550552368</v>
+        <v>1.513740062713623</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01353549957275391</v>
+        <v>0.01433777809143066</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0208885669708252</v>
+        <v>0.01177144050598145</v>
       </c>
       <c r="U51" t="n">
-        <v>1.182779550552368</v>
+        <v>1.513740062713623</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -8004,18 +8004,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.03715753555297852</v>
+        <v>0.03732538223266602</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>0.6125655174255371</v>
+        <v>0.8922178745269775</v>
       </c>
       <c r="S52" t="n">
-        <v>0.03715753555297852</v>
+        <v>0.03732538223266602</v>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>0.6125655174255371</v>
+        <v>0.8922178745269775</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8148,18 +8148,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.001747369766235352</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.2861049175262451</v>
+        <v>0.3523163795471191</v>
       </c>
       <c r="S53" t="n">
-        <v>0.001747369766235352</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.2861049175262451</v>
+        <v>0.3523163795471191</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8246,7 +8246,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r127</t>
+          <t>XGBoost_r89_FULL</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -8256,60 +8256,54 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I54" t="n">
         <v>0.8357142857142856</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.3372543232997292</v>
+        <v>-0.3568596150458674</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2625376862341148</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.8715061864878041</v>
-      </c>
+        <v>0.2268421186076567</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.001999855041503906</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
+        <v>0.007757902145385742</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>1.279694795608521</v>
+        <v>0.11435866355896</v>
       </c>
       <c r="S54" t="n">
-        <v>0.001999855041503906</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
+        <v>0.007757902145385742</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>1.279694795608521</v>
+        <v>0.11435866355896</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8318,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Y54" t="n">
         <v>19</v>
@@ -8330,16 +8324,16 @@
         <v>1</v>
       </c>
       <c r="AB54" t="n">
-        <v>144506</v>
+        <v>210918</v>
       </c>
       <c r="AC54" t="n">
-        <v>144506</v>
+        <v>210918</v>
       </c>
       <c r="AD54" t="n">
-        <v>144506</v>
+        <v>210918</v>
       </c>
       <c r="AE54" t="n">
-        <v>144506</v>
+        <v>210918</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -8349,7 +8343,7 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>XGBoostModel</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr"/>
@@ -8360,17 +8354,17 @@
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100], 'emb_drop': 0.31956392388385874, 'ps': 0.0934076022219228, 'bs': 1024, 'lr': 0.08552736732040143, 'epochs': 25, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'n_estimators': 166, 'learning_rate': 0.08775715546881824, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6628423832084077, 'enable_categorical': False, 'max_depth': 5, 'min_child_weight': 0.6294123374222513}</t>
         </is>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>{'epochs': 25, 'best_epoch': 19}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
@@ -8396,7 +8390,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XGBoost_r89_FULL</t>
+          <t>NeuralNetFastAI_r127</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -8406,54 +8400,60 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I55" t="n">
         <v>0.8357142857142856</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.3568596150458674</v>
+        <v>-0.3372543232997292</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2268421186076567</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0.2625376862341148</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8715061864878041</v>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.007454633712768555</v>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+        <v>0.007856607437133789</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.01552391052246094</v>
+      </c>
       <c r="R55" t="n">
-        <v>0.06879997253417969</v>
+        <v>1.674119710922241</v>
       </c>
       <c r="S55" t="n">
-        <v>0.007454633712768555</v>
-      </c>
-      <c r="T55" t="inlineStr"/>
+        <v>0.007856607437133789</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01552391052246094</v>
+      </c>
       <c r="U55" t="n">
-        <v>0.06879997253417969</v>
+        <v>1.674119710922241</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8462,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="Y55" t="n">
         <v>19</v>
@@ -8474,16 +8474,16 @@
         <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>210918</v>
+        <v>144506</v>
       </c>
       <c r="AC55" t="n">
-        <v>210918</v>
+        <v>144506</v>
       </c>
       <c r="AD55" t="n">
-        <v>210918</v>
+        <v>144506</v>
       </c>
       <c r="AE55" t="n">
-        <v>210918</v>
+        <v>144506</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>XGBoostModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr"/>
@@ -8504,17 +8504,17 @@
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>{'n_estimators': 166, 'learning_rate': 0.08775715546881824, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6628423832084077, 'enable_categorical': False, 'max_depth': 5, 'min_child_weight': 0.6294123374222513}</t>
+          <t>{'layers': [200, 100], 'emb_drop': 0.31956392388385874, 'ps': 0.0934076022219228, 'bs': 1024, 'lr': 0.08552736732040143, 'epochs': 25, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'epochs': 25, 'best_epoch': 19}</t>
         </is>
       </c>
       <c r="AM55" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN55" t="inlineStr">
@@ -8586,18 +8586,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.03019189834594727</v>
+        <v>0.0288078784942627</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.3047523498535156</v>
+        <v>0.5396792888641357</v>
       </c>
       <c r="S56" t="n">
-        <v>0.03019189834594727</v>
+        <v>0.0288078784942627</v>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>0.3047523498535156</v>
+        <v>0.5396792888641357</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8730,18 +8730,18 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.06507468223571777</v>
+        <v>0.06743574142456055</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.7513394355773926</v>
+        <v>1.109810352325439</v>
       </c>
       <c r="S57" t="n">
-        <v>0.06507468223571777</v>
+        <v>0.06743574142456055</v>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>0.7513394355773926</v>
+        <v>1.109810352325439</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8876,22 +8876,22 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.009253025054931641</v>
+        <v>0.01445484161376953</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.02263069152832031</v>
       </c>
       <c r="R58" t="n">
-        <v>2.190998792648315</v>
+        <v>2.644659280776978</v>
       </c>
       <c r="S58" t="n">
-        <v>0.009253025054931641</v>
+        <v>0.01445484161376953</v>
       </c>
       <c r="T58" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.02263069152832031</v>
       </c>
       <c r="U58" t="n">
-        <v>2.190998792648315</v>
+        <v>2.644659280776978</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9024,18 +9024,18 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.01352453231811523</v>
+        <v>0.01509809494018555</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>0.4794454574584961</v>
+        <v>0.5789065361022949</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01352453231811523</v>
+        <v>0.01509809494018555</v>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>0.4794454574584961</v>
+        <v>0.5789065361022949</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9168,18 +9168,18 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.007259368896484375</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0.1671593189239502</v>
+        <v>0.2189066410064697</v>
       </c>
       <c r="S60" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.007259368896484375</v>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>0.1671593189239502</v>
+        <v>0.2189066410064697</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9266,7 +9266,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>NeuralNetFastAI_r143_FULL</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -9276,60 +9276,54 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.71</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.7237076648841354</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I61" t="n">
         <v>0.8301587301587301</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.2864433062494723</v>
+        <v>-0.248233943992897</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3583740375043173</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.9017928830428831</v>
-      </c>
+        <v>0.4337188414290576</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.01060080528259277</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.0162358283996582</v>
-      </c>
+        <v>0.01343178749084473</v>
+      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0.5537731647491455</v>
+        <v>1.914564847946167</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01060080528259277</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0.0162358283996582</v>
-      </c>
+        <v>0.01343178749084473</v>
+      </c>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>0.5537731647491455</v>
+        <v>1.914564847946167</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9338,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="Y61" t="n">
         <v>19</v>
@@ -9350,16 +9344,16 @@
         <v>1</v>
       </c>
       <c r="AB61" t="n">
-        <v>792391</v>
+        <v>169528</v>
       </c>
       <c r="AC61" t="n">
-        <v>792391</v>
+        <v>169528</v>
       </c>
       <c r="AD61" t="n">
-        <v>792391</v>
+        <v>169528</v>
       </c>
       <c r="AE61" t="n">
-        <v>792391</v>
+        <v>169528</v>
       </c>
       <c r="AF61" t="n">
         <v>0</v>
@@ -9369,7 +9363,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr"/>
@@ -9380,17 +9374,17 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.05, 'extra_trees': True}</t>
+          <t>{'layers': [200, 100, 50], 'emb_drop': 0.6239200452002372, 'ps': 0.670815151683455, 'bs': 1024, 'lr': 0.07170321592506483, 'epochs': 39, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 24}</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 1004}</t>
+          <t>{'epochs': 39, 'best_epoch': 24}</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN61" t="inlineStr">
@@ -9416,7 +9410,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r143_FULL</t>
+          <t>LightGBM_r30</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -9426,54 +9420,60 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E62" t="n">
-        <v>0.71</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7237076648841354</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I62" t="n">
         <v>0.8301587301587301</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.248233943992897</v>
+        <v>-0.2929340094749739</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4337188414290576</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0.3458587698782716</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8957031394531395</v>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.01376771926879883</v>
-      </c>
-      <c r="Q62" t="inlineStr"/>
+        <v>0.03293275833129883</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.007047653198242188</v>
+      </c>
       <c r="R62" t="n">
-        <v>1.519234657287598</v>
+        <v>3.145100831985474</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01376771926879883</v>
-      </c>
-      <c r="T62" t="inlineStr"/>
+        <v>0.03293275833129883</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.007047653198242188</v>
+      </c>
       <c r="U62" t="n">
-        <v>1.519234657287598</v>
+        <v>3.145100831985474</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9482,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="Y62" t="n">
         <v>19</v>
@@ -9494,16 +9494,16 @@
         <v>1</v>
       </c>
       <c r="AB62" t="n">
-        <v>169528</v>
+        <v>3038175</v>
       </c>
       <c r="AC62" t="n">
-        <v>169528</v>
+        <v>3038175</v>
       </c>
       <c r="AD62" t="n">
-        <v>169528</v>
+        <v>3038175</v>
       </c>
       <c r="AE62" t="n">
-        <v>169528</v>
+        <v>3038175</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr"/>
@@ -9524,17 +9524,17 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100, 50], 'emb_drop': 0.6239200452002372, 'ps': 0.670815151683455, 'bs': 1024, 'lr': 0.07170321592506483, 'epochs': 39, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 24}</t>
+          <t>{'learning_rate': 0.010534290864227067, 'extra_trees': True, 'feature_fraction': 0.9773131270704629, 'min_data_in_leaf': 21, 'num_leaves': 111}</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>{'epochs': 39, 'best_epoch': 24}</t>
+          <t>{'num_boost_round': 3935}</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -9560,7 +9560,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LightGBM_r30</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -9594,13 +9594,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.2929340094749739</v>
+        <v>-0.2864433062494723</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3458587698782716</v>
+        <v>0.3583740375043173</v>
       </c>
       <c r="N63" t="n">
-        <v>0.8957031394531395</v>
+        <v>0.9017928830428831</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -9608,22 +9608,22 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.04417252540588379</v>
+        <v>0.04172563552856445</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="R63" t="n">
-        <v>1.739529371261597</v>
+        <v>0.7997019290924072</v>
       </c>
       <c r="S63" t="n">
-        <v>0.04417252540588379</v>
+        <v>0.04172563552856445</v>
       </c>
       <c r="T63" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="U63" t="n">
-        <v>1.739529371261597</v>
+        <v>0.7997019290924072</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="Y63" t="n">
         <v>19</v>
@@ -9644,16 +9644,16 @@
         <v>1</v>
       </c>
       <c r="AB63" t="n">
-        <v>3038175</v>
+        <v>792391</v>
       </c>
       <c r="AC63" t="n">
-        <v>3038175</v>
+        <v>792391</v>
       </c>
       <c r="AD63" t="n">
-        <v>3038175</v>
+        <v>792391</v>
       </c>
       <c r="AE63" t="n">
-        <v>3038175</v>
+        <v>792391</v>
       </c>
       <c r="AF63" t="n">
         <v>0</v>
@@ -9674,12 +9674,12 @@
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010534290864227067, 'extra_trees': True, 'feature_fraction': 0.9773131270704629, 'min_data_in_leaf': 21, 'num_leaves': 111}</t>
+          <t>{'learning_rate': 0.05, 'extra_trees': True}</t>
         </is>
       </c>
       <c r="AL63" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 3935}</t>
+          <t>{'num_boost_round': 1004}</t>
         </is>
       </c>
       <c r="AM63" t="inlineStr">
@@ -9758,22 +9758,22 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.05791616439819336</v>
+        <v>0.06008076667785645</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.006003618240356445</v>
+        <v>0.007245779037475586</v>
       </c>
       <c r="R64" t="n">
-        <v>3.089707851409912</v>
+        <v>4.711068391799927</v>
       </c>
       <c r="S64" t="n">
-        <v>0.05791616439819336</v>
+        <v>0.06008076667785645</v>
       </c>
       <c r="T64" t="n">
-        <v>0.006003618240356445</v>
+        <v>0.007245779037475586</v>
       </c>
       <c r="U64" t="n">
-        <v>3.089707851409912</v>
+        <v>4.711068391799927</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9860,7 +9860,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CatBoost_r198</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -9870,37 +9870,37 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I65" t="n">
         <v>0.8284090909090909</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="K65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.3004463539847134</v>
+        <v>-0.3025074600228652</v>
       </c>
       <c r="M65" t="n">
-        <v>0.3314746878747832</v>
+        <v>0.3275469685604306</v>
       </c>
       <c r="N65" t="n">
-        <v>0.95753182003182</v>
+        <v>0.9365331427831428</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -9908,22 +9908,22 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.00254368782043457</v>
+        <v>0.003752708435058594</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01574277877807617</v>
+        <v>0.003289937973022461</v>
       </c>
       <c r="R65" t="n">
-        <v>0.8631458282470703</v>
+        <v>1.015724182128906</v>
       </c>
       <c r="S65" t="n">
-        <v>0.00254368782043457</v>
+        <v>0.003752708435058594</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01574277877807617</v>
+        <v>0.003289937973022461</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8631458282470703</v>
+        <v>1.015724182128906</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -9932,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="Y65" t="n">
         <v>19</v>
@@ -9944,22 +9944,22 @@
         <v>1</v>
       </c>
       <c r="AB65" t="n">
-        <v>298341</v>
+        <v>234279</v>
       </c>
       <c r="AC65" t="n">
-        <v>298341</v>
+        <v>234279</v>
       </c>
       <c r="AD65" t="n">
-        <v>298341</v>
+        <v>234279</v>
       </c>
       <c r="AE65" t="n">
-        <v>298341</v>
+        <v>234279</v>
       </c>
       <c r="AF65" t="n">
         <v>0</v>
       </c>
       <c r="AG65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
@@ -9974,12 +9974,12 @@
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
         </is>
       </c>
       <c r="AL65" t="inlineStr">
         <is>
-          <t>{'iterations': 233}</t>
+          <t>{'iterations': 177}</t>
         </is>
       </c>
       <c r="AM65" t="inlineStr">
@@ -10003,14 +10003,14 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>['WeightedEnsemble_L2']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CatBoost_r128_FULL</t>
+          <t>CatBoost_r49</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -10020,54 +10020,60 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F66" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I66" t="n">
         <v>0.8284090909090909</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.2703387162986444</v>
+        <v>-0.3020197114955535</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3897798231837706</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0.3284756177556302</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.923987123987124</v>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.003751277923583984</v>
-      </c>
-      <c r="Q66" t="inlineStr"/>
+        <v>0.004010438919067383</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
       <c r="R66" t="n">
-        <v>1.240422248840332</v>
+        <v>0.8328161239624023</v>
       </c>
       <c r="S66" t="n">
-        <v>0.003751277923583984</v>
-      </c>
-      <c r="T66" t="inlineStr"/>
+        <v>0.004010438919067383</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
       <c r="U66" t="n">
-        <v>1.240422248840332</v>
+        <v>0.8328161239624023</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10076,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="Y66" t="n">
         <v>19</v>
@@ -10088,16 +10094,16 @@
         <v>1</v>
       </c>
       <c r="AB66" t="n">
-        <v>1140034</v>
+        <v>109043</v>
       </c>
       <c r="AC66" t="n">
-        <v>1140034</v>
+        <v>109043</v>
       </c>
       <c r="AD66" t="n">
-        <v>1140034</v>
+        <v>109043</v>
       </c>
       <c r="AE66" t="n">
-        <v>1140034</v>
+        <v>109043</v>
       </c>
       <c r="AF66" t="n">
         <v>0</v>
@@ -10118,17 +10124,17 @@
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>{'iterations': 236, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr">
         <is>
-          <t>{'iterations': 236}</t>
+          <t>{'iterations': 214}</t>
         </is>
       </c>
       <c r="AM66" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN66" t="inlineStr">
@@ -10154,7 +10160,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CatBoost_r49</t>
+          <t>CatBoost_r128_FULL</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -10164,60 +10170,54 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F67" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I67" t="n">
         <v>0.8284090909090909</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.3020197114955535</v>
+        <v>-0.2703387162986444</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3284756177556302</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.923987123987124</v>
-      </c>
+        <v>0.3897798231837706</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0040130615234375</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004819631576538086</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>0.7320132255554199</v>
+        <v>1.816465616226196</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0040130615234375</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004819631576538086</v>
+      </c>
+      <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>0.7320132255554199</v>
+        <v>1.816465616226196</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="Y67" t="n">
         <v>19</v>
@@ -10238,16 +10238,16 @@
         <v>1</v>
       </c>
       <c r="AB67" t="n">
-        <v>109043</v>
+        <v>1140034</v>
       </c>
       <c r="AC67" t="n">
-        <v>109043</v>
+        <v>1140034</v>
       </c>
       <c r="AD67" t="n">
-        <v>109043</v>
+        <v>1140034</v>
       </c>
       <c r="AE67" t="n">
-        <v>109043</v>
+        <v>1140034</v>
       </c>
       <c r="AF67" t="n">
         <v>0</v>
@@ -10268,17 +10268,17 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 236, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>{'iterations': 214}</t>
+          <t>{'iterations': 236}</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
@@ -10304,7 +10304,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>CatBoost_r9</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -10314,37 +10314,37 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I68" t="n">
         <v>0.8284090909090909</v>
       </c>
       <c r="J68" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.3025074600228652</v>
+        <v>-0.3361171440328403</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3275469685604306</v>
+        <v>0.2646299107602042</v>
       </c>
       <c r="N68" t="n">
-        <v>0.9365331427831428</v>
+        <v>0.9319630600880601</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -10352,22 +10352,22 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.004016637802124023</v>
+        <v>0.007328510284423828</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="R68" t="n">
-        <v>0.7849009037017822</v>
+        <v>4.631837129592896</v>
       </c>
       <c r="S68" t="n">
-        <v>0.004016637802124023</v>
+        <v>0.007328510284423828</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="U68" t="n">
-        <v>0.7849009037017822</v>
+        <v>4.631837129592896</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="X68" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Y68" t="n">
         <v>19</v>
@@ -10388,16 +10388,16 @@
         <v>1</v>
       </c>
       <c r="AB68" t="n">
-        <v>234279</v>
+        <v>1424190</v>
       </c>
       <c r="AC68" t="n">
-        <v>234279</v>
+        <v>1424190</v>
       </c>
       <c r="AD68" t="n">
-        <v>234279</v>
+        <v>1424190</v>
       </c>
       <c r="AE68" t="n">
-        <v>234279</v>
+        <v>1424190</v>
       </c>
       <c r="AF68" t="n">
         <v>0</v>
@@ -10418,12 +10418,12 @@
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
         <is>
-          <t>{'iterations': 177}</t>
+          <t>{'iterations': 287}</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
@@ -10454,7 +10454,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CatBoost_r9</t>
+          <t>LightGBM_r121</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -10467,13 +10467,13 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H69" t="n">
         <v>0.8387096774193549</v>
@@ -10482,19 +10482,19 @@
         <v>0.8284090909090909</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.3361171440328403</v>
+        <v>-0.286480653035027</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2646299107602042</v>
+        <v>0.358302024198671</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9319630600880601</v>
+        <v>0.8431256379785792</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -10502,22 +10502,22 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.006009578704833984</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.002607345581054688</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="R69" t="n">
-        <v>3.494894742965698</v>
+        <v>0.6972055435180664</v>
       </c>
       <c r="S69" t="n">
-        <v>0.006009578704833984</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="T69" t="n">
-        <v>0.002607345581054688</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="U69" t="n">
-        <v>3.494894742965698</v>
+        <v>0.6972055435180664</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -10538,16 +10538,16 @@
         <v>1</v>
       </c>
       <c r="AB69" t="n">
-        <v>1424190</v>
+        <v>1086639</v>
       </c>
       <c r="AC69" t="n">
-        <v>1424190</v>
+        <v>1086639</v>
       </c>
       <c r="AD69" t="n">
-        <v>1424190</v>
+        <v>1086639</v>
       </c>
       <c r="AE69" t="n">
-        <v>1424190</v>
+        <v>1086639</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr"/>
@@ -10568,12 +10568,12 @@
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
+          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215}</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr">
         <is>
-          <t>{'iterations': 287}</t>
+          <t>{'num_boost_round': 511}</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
@@ -10604,7 +10604,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LightGBM_r121</t>
+          <t>CatBoost_r198</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -10617,13 +10617,13 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H70" t="n">
         <v>0.8387096774193549</v>
@@ -10632,19 +10632,19 @@
         <v>0.8284090909090909</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.286480653035027</v>
+        <v>-0.3004463539847134</v>
       </c>
       <c r="M70" t="n">
-        <v>0.358302024198671</v>
+        <v>0.3314746878747832</v>
       </c>
       <c r="N70" t="n">
-        <v>0.8431256379785792</v>
+        <v>0.95753182003182</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -10652,22 +10652,22 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.007760047912597656</v>
+        <v>0.01598286628723145</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.002005100250244141</v>
+        <v>0.002132415771484375</v>
       </c>
       <c r="R70" t="n">
-        <v>0.461153507232666</v>
+        <v>1.26239800453186</v>
       </c>
       <c r="S70" t="n">
-        <v>0.007760047912597656</v>
+        <v>0.01598286628723145</v>
       </c>
       <c r="T70" t="n">
-        <v>0.002005100250244141</v>
+        <v>0.002132415771484375</v>
       </c>
       <c r="U70" t="n">
-        <v>0.461153507232666</v>
+        <v>1.26239800453186</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Y70" t="n">
         <v>19</v>
@@ -10688,26 +10688,26 @@
         <v>1</v>
       </c>
       <c r="AB70" t="n">
-        <v>1086639</v>
+        <v>298341</v>
       </c>
       <c r="AC70" t="n">
-        <v>1086639</v>
+        <v>298341</v>
       </c>
       <c r="AD70" t="n">
-        <v>1086639</v>
+        <v>298341</v>
       </c>
       <c r="AE70" t="n">
-        <v>1086639</v>
+        <v>298341</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr"/>
@@ -10718,12 +10718,12 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 511}</t>
+          <t>{'iterations': 233}</t>
         </is>
       </c>
       <c r="AM70" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['WeightedEnsemble_L2']</t>
         </is>
       </c>
     </row>
@@ -10802,22 +10802,22 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0183868408203125</v>
+        <v>0.0177757740020752</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0080108642578125</v>
+        <v>0.01102471351623535</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3040153980255127</v>
+        <v>0.3911099433898926</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0183868408203125</v>
+        <v>0.0177757740020752</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0080108642578125</v>
+        <v>0.01102471351623535</v>
       </c>
       <c r="U71" t="n">
-        <v>0.3040153980255127</v>
+        <v>0.3911099433898926</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10950,18 +10950,18 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0677947998046875</v>
+        <v>0.08053159713745117</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>0.9672801494598389</v>
+        <v>1.100008249282837</v>
       </c>
       <c r="S72" t="n">
-        <v>0.0677947998046875</v>
+        <v>0.08053159713745117</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>0.9672801494598389</v>
+        <v>1.100008249282837</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11094,18 +11094,18 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.05149054527282715</v>
+        <v>0.06515026092529297</v>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>0.766460657119751</v>
+        <v>0.9440071582794189</v>
       </c>
       <c r="S73" t="n">
-        <v>0.05149054527282715</v>
+        <v>0.06515026092529297</v>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>0.766460657119751</v>
+        <v>0.9440071582794189</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11238,18 +11238,18 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.06903886795043945</v>
+        <v>0.07555937767028809</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>0.6731498241424561</v>
+        <v>0.7693228721618652</v>
       </c>
       <c r="S74" t="n">
-        <v>0.06903886795043945</v>
+        <v>0.07555937767028809</v>
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>0.6731498241424561</v>
+        <v>0.7693228721618652</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -11384,22 +11384,22 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.006017208099365234</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3944942951202393</v>
+        <v>0.6067407131195068</v>
       </c>
       <c r="S75" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.006017208099365234</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="U75" t="n">
-        <v>0.3944942951202393</v>
+        <v>0.6067407131195068</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11534,22 +11534,22 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0157620906829834</v>
+        <v>0.01176548004150391</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.01109766960144043</v>
       </c>
       <c r="R76" t="n">
-        <v>5.420727968215942</v>
+        <v>7.361042976379395</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0157620906829834</v>
+        <v>0.01176548004150391</v>
       </c>
       <c r="T76" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.01109766960144043</v>
       </c>
       <c r="U76" t="n">
-        <v>5.420727968215942</v>
+        <v>7.361042976379395</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11682,18 +11682,18 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.01377511024475098</v>
+        <v>0.01203441619873047</v>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>0.5979373455047607</v>
+        <v>0.7376680374145508</v>
       </c>
       <c r="S77" t="n">
-        <v>0.01377511024475098</v>
+        <v>0.01203441619873047</v>
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>0.5979373455047607</v>
+        <v>0.7376680374145508</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11826,18 +11826,18 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.01387786865234375</v>
+        <v>0.01280760765075684</v>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>1.136354446411133</v>
+        <v>1.507711172103882</v>
       </c>
       <c r="S78" t="n">
-        <v>0.01387786865234375</v>
+        <v>0.01280760765075684</v>
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>1.136354446411133</v>
+        <v>1.507711172103882</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11970,18 +11970,18 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.01649713516235352</v>
+        <v>0.01767563819885254</v>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>0.5669426918029785</v>
+        <v>0.7607042789459229</v>
       </c>
       <c r="S79" t="n">
-        <v>0.00208592414855957</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>0.1285400390625</v>
+        <v>0.1589815616607666</v>
       </c>
       <c r="V79" t="n">
         <v>2</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>['CatBoost_r198', 'NeuralNetTorch_r41']</t>
+          <t>['NeuralNetTorch_r41', 'CatBoost_r198']</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr"/>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="AS79" t="inlineStr">
         <is>
-          <t>['CatBoost_r198_FULL', 'NeuralNetTorch_r41_FULL']</t>
+          <t>['NeuralNetTorch_r41_FULL', 'CatBoost_r198_FULL']</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr">
@@ -12130,18 +12130,18 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.005018711090087891</v>
+        <v>0.006014823913574219</v>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>0.05155158042907715</v>
+        <v>0.07156610488891602</v>
       </c>
       <c r="S80" t="n">
-        <v>0.005018711090087891</v>
+        <v>0.006014823913574219</v>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>0.05155158042907715</v>
+        <v>0.07156610488891602</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12274,18 +12274,18 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.006531000137329102</v>
+        <v>0.006129741668701172</v>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>0.06295633316040039</v>
+        <v>0.1058371067047119</v>
       </c>
       <c r="S81" t="n">
-        <v>0.006531000137329102</v>
+        <v>0.006129741668701172</v>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>0.06295633316040039</v>
+        <v>0.1058371067047119</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12418,18 +12418,18 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01377224922180176</v>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>0.1021394729614258</v>
+        <v>0.1449079513549805</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01377224922180176</v>
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>0.1021394729614258</v>
+        <v>0.1449079513549805</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12516,7 +12516,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LightGBM_r161</t>
+          <t>LightGBM_r131</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -12526,37 +12526,37 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I83" t="n">
         <v>0.8210678210678211</v>
       </c>
       <c r="J83" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K83" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.2959700808797768</v>
+        <v>-0.2913083903566364</v>
       </c>
       <c r="M83" t="n">
-        <v>0.3400324481666567</v>
+        <v>0.3489855906803621</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8401658283237231</v>
+        <v>0.8113209098406468</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -12564,22 +12564,22 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.006011962890625</v>
+        <v>0.007762670516967773</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.003650903701782227</v>
       </c>
       <c r="R83" t="n">
-        <v>0.4564290046691895</v>
+        <v>0.5710492134094238</v>
       </c>
       <c r="S83" t="n">
-        <v>0.006011962890625</v>
+        <v>0.007762670516967773</v>
       </c>
       <c r="T83" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.003650903701782227</v>
       </c>
       <c r="U83" t="n">
-        <v>0.4564290046691895</v>
+        <v>0.5710492134094238</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Y83" t="n">
         <v>19</v>
@@ -12600,16 +12600,16 @@
         <v>1</v>
       </c>
       <c r="AB83" t="n">
-        <v>988995</v>
+        <v>907785</v>
       </c>
       <c r="AC83" t="n">
-        <v>988995</v>
+        <v>907785</v>
       </c>
       <c r="AD83" t="n">
-        <v>988995</v>
+        <v>907785</v>
       </c>
       <c r="AE83" t="n">
-        <v>988995</v>
+        <v>907785</v>
       </c>
       <c r="AF83" t="n">
         <v>0</v>
@@ -12630,12 +12630,12 @@
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010464516487486093, 'extra_trees': False, 'feature_fraction': 0.5898927512279213, 'min_data_in_leaf': 11, 'num_leaves': 252}</t>
+          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53}</t>
         </is>
       </c>
       <c r="AL83" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 507}</t>
+          <t>{'num_boost_round': 562}</t>
         </is>
       </c>
       <c r="AM83" t="inlineStr">
@@ -12666,7 +12666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LightGBM_r131</t>
+          <t>LightGBM_r161</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -12676,37 +12676,37 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I84" t="n">
         <v>0.8210678210678211</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="K84" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.2913083903566364</v>
+        <v>-0.2959700808797768</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3489855906803621</v>
+        <v>0.3400324481666567</v>
       </c>
       <c r="N84" t="n">
-        <v>0.8113209098406468</v>
+        <v>0.8401658283237231</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -12714,22 +12714,22 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.006011962890625</v>
+        <v>0.008017539978027344</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>0.002995014190673828</v>
       </c>
       <c r="R84" t="n">
-        <v>0.4991872310638428</v>
+        <v>0.6228151321411133</v>
       </c>
       <c r="S84" t="n">
-        <v>0.006011962890625</v>
+        <v>0.008017539978027344</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>0.002995014190673828</v>
       </c>
       <c r="U84" t="n">
-        <v>0.4991872310638428</v>
+        <v>0.6228151321411133</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="X84" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Y84" t="n">
         <v>19</v>
@@ -12750,16 +12750,16 @@
         <v>1</v>
       </c>
       <c r="AB84" t="n">
-        <v>907785</v>
+        <v>988995</v>
       </c>
       <c r="AC84" t="n">
-        <v>907785</v>
+        <v>988995</v>
       </c>
       <c r="AD84" t="n">
-        <v>907785</v>
+        <v>988995</v>
       </c>
       <c r="AE84" t="n">
-        <v>907785</v>
+        <v>988995</v>
       </c>
       <c r="AF84" t="n">
         <v>0</v>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53}</t>
+          <t>{'learning_rate': 0.010464516487486093, 'extra_trees': False, 'feature_fraction': 0.5898927512279213, 'min_data_in_leaf': 11, 'num_leaves': 252}</t>
         </is>
       </c>
       <c r="AL84" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 562}</t>
+          <t>{'num_boost_round': 507}</t>
         </is>
       </c>
       <c r="AM84" t="inlineStr">
@@ -12862,18 +12862,18 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.007018089294433594</v>
+        <v>0.009526729583740234</v>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>0.2516882419586182</v>
+        <v>0.3054420948028564</v>
       </c>
       <c r="S85" t="n">
-        <v>0.007018089294433594</v>
+        <v>0.009526729583740234</v>
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>0.2516882419586182</v>
+        <v>0.3054420948028564</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13006,18 +13006,18 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.04816460609436035</v>
+        <v>0.06126785278320312</v>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>0.8689799308776855</v>
+        <v>1.18123459815979</v>
       </c>
       <c r="S86" t="n">
-        <v>0.04816460609436035</v>
+        <v>0.06126785278320312</v>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>0.8689799308776855</v>
+        <v>1.18123459815979</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13152,22 +13152,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.06581425666809082</v>
+        <v>0.06917977333068848</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.04133009910583496</v>
+        <v>0.03897190093994141</v>
       </c>
       <c r="R87" t="n">
-        <v>0.6982829570770264</v>
+        <v>0.7718679904937744</v>
       </c>
       <c r="S87" t="n">
-        <v>0.06581425666809082</v>
+        <v>0.06917977333068848</v>
       </c>
       <c r="T87" t="n">
-        <v>0.04133009910583496</v>
+        <v>0.03897190093994141</v>
       </c>
       <c r="U87" t="n">
-        <v>0.6982829570770264</v>
+        <v>0.7718679904937744</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13254,7 +13254,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r76_FULL</t>
+          <t>NeuralNetFastAI_r187_FULL</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -13264,34 +13264,34 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I88" t="n">
         <v>0.8214646464646465</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="K88" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.2669743690921699</v>
+        <v>-0.2393102413536602</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3964048937567327</v>
+        <v>0.4517338373741604</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
@@ -13300,18 +13300,18 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.009529352188110352</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>0.1003193855285645</v>
+        <v>1.663779258728027</v>
       </c>
       <c r="S88" t="n">
-        <v>0.009529352188110352</v>
+        <v>0</v>
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>0.1003193855285645</v>
+        <v>1.663779258728027</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13320,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="X88" t="n">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="Y88" t="n">
         <v>19</v>
@@ -13332,16 +13332,16 @@
         <v>1</v>
       </c>
       <c r="AB88" t="n">
-        <v>36882</v>
+        <v>167912</v>
       </c>
       <c r="AC88" t="n">
-        <v>36882</v>
+        <v>167912</v>
       </c>
       <c r="AD88" t="n">
-        <v>36882</v>
+        <v>167912</v>
       </c>
       <c r="AE88" t="n">
-        <v>36882</v>
+        <v>167912</v>
       </c>
       <c r="AF88" t="n">
         <v>0</v>
@@ -13351,23 +13351,23 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>{'num_epochs': 7, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.006531401073483156, 'optimizer': 'adam', 'learning_rate': 0.012418052210914356, 'weight_decay': 3.0406866089493607e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 192, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AL88" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 42, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AM88" t="inlineStr">
@@ -13398,7 +13398,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r187_FULL</t>
+          <t>NeuralNetTorch_r76_FULL</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -13408,34 +13408,34 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I89" t="n">
         <v>0.8214646464646465</v>
       </c>
       <c r="J89" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K89" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.2393102413536602</v>
+        <v>-0.2669743690921699</v>
       </c>
       <c r="M89" t="n">
-        <v>0.4517338373741604</v>
+        <v>0.3964048937567327</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
@@ -13444,18 +13444,18 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.01026582717895508</v>
+        <v>0.01137208938598633</v>
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>1.145747423171997</v>
+        <v>0.1278021335601807</v>
       </c>
       <c r="S89" t="n">
-        <v>0.01026582717895508</v>
+        <v>0.01137208938598633</v>
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>1.145747423171997</v>
+        <v>0.1278021335601807</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13464,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -13476,16 +13476,16 @@
         <v>1</v>
       </c>
       <c r="AB89" t="n">
-        <v>167912</v>
+        <v>36882</v>
       </c>
       <c r="AC89" t="n">
-        <v>167912</v>
+        <v>36882</v>
       </c>
       <c r="AD89" t="n">
-        <v>167912</v>
+        <v>36882</v>
       </c>
       <c r="AE89" t="n">
-        <v>167912</v>
+        <v>36882</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -13495,23 +13495,23 @@
       </c>
       <c r="AH89" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
+          <t>{'num_epochs': 7, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.006531401073483156, 'optimizer': 'adam', 'learning_rate': 0.012418052210914356, 'weight_decay': 3.0406866089493607e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 192, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL89" t="inlineStr">
         <is>
-          <t>{'epochs': 42, 'best_epoch': 18}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM89" t="inlineStr">
@@ -13588,18 +13588,18 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.01177000999450684</v>
+        <v>0.0144202709197998</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>0.5672383308410645</v>
+        <v>0.7008421421051025</v>
       </c>
       <c r="S90" t="n">
-        <v>0.01177000999450684</v>
+        <v>0.0144202709197998</v>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>0.5672383308410645</v>
+        <v>0.7008421421051025</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13732,18 +13732,18 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.004008769989013672</v>
+        <v>0.00418400764465332</v>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>0.5106244087219238</v>
+        <v>0.7344100475311279</v>
       </c>
       <c r="S91" t="n">
-        <v>0.004008769989013672</v>
+        <v>0.00418400764465332</v>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>0.5106244087219238</v>
+        <v>0.7344100475311279</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13876,18 +13876,18 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.007232666015625</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>0.05356311798095703</v>
+        <v>0.07662081718444824</v>
       </c>
       <c r="S92" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.007232666015625</v>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>0.05356311798095703</v>
+        <v>0.07662081718444824</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14022,22 +14022,22 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.00977325439453125</v>
+        <v>0.008275985717773438</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>0.004816055297851562</v>
       </c>
       <c r="R93" t="n">
-        <v>0.4513418674468994</v>
+        <v>0.4853863716125488</v>
       </c>
       <c r="S93" t="n">
-        <v>0.00977325439453125</v>
+        <v>0.008275985717773438</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>0.004816055297851562</v>
       </c>
       <c r="U93" t="n">
-        <v>0.4513418674468994</v>
+        <v>0.4853863716125488</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14170,18 +14170,18 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.01402521133422852</v>
+        <v>0.01376795768737793</v>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>0.702629566192627</v>
+        <v>0.7671699523925781</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01402521133422852</v>
+        <v>0.01376795768737793</v>
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>0.702629566192627</v>
+        <v>0.7671699523925781</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14316,22 +14316,22 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.01978230476379395</v>
+        <v>0.01738977432250977</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.002893686294555664</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="R95" t="n">
-        <v>0.3547534942626953</v>
+        <v>0.5856223106384277</v>
       </c>
       <c r="S95" t="n">
-        <v>0.01978230476379395</v>
+        <v>0.01738977432250977</v>
       </c>
       <c r="T95" t="n">
-        <v>0.002893686294555664</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="U95" t="n">
-        <v>0.3547534942626953</v>
+        <v>0.5856223106384277</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14466,22 +14466,22 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.03629517555236816</v>
+        <v>0.03555178642272949</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.00200653076171875</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="R96" t="n">
-        <v>0.9797825813293457</v>
+        <v>1.439460277557373</v>
       </c>
       <c r="S96" t="n">
-        <v>0.03629517555236816</v>
+        <v>0.03555178642272949</v>
       </c>
       <c r="T96" t="n">
-        <v>0.00200653076171875</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="U96" t="n">
-        <v>0.9797825813293457</v>
+        <v>1.439460277557373</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14614,18 +14614,18 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.01002192497253418</v>
+        <v>0.009977579116821289</v>
       </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>0.25881028175354</v>
+        <v>0.2875070571899414</v>
       </c>
       <c r="S97" t="n">
-        <v>0.01002192497253418</v>
+        <v>0.009977579116821289</v>
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>0.25881028175354</v>
+        <v>0.2875070571899414</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14760,22 +14760,22 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0238029956817627</v>
+        <v>0.02704906463623047</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>19.90328741073608</v>
+        <v>25.51077556610107</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0238029956817627</v>
+        <v>0.02704906463623047</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>19.90328741073608</v>
+        <v>25.51077556610107</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14910,22 +14910,22 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.01404404640197754</v>
+        <v>0.01520729064941406</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.005762100219726562</v>
+        <v>0.008734703063964844</v>
       </c>
       <c r="R99" t="n">
-        <v>0.9334127902984619</v>
+        <v>1.283393383026123</v>
       </c>
       <c r="S99" t="n">
-        <v>0.01404404640197754</v>
+        <v>0.01520729064941406</v>
       </c>
       <c r="T99" t="n">
-        <v>0.005762100219726562</v>
+        <v>0.008734703063964844</v>
       </c>
       <c r="U99" t="n">
-        <v>0.9334127902984619</v>
+        <v>1.283393383026123</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15058,18 +15058,18 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.02179074287414551</v>
+        <v>0.01929378509521484</v>
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>0.240917444229126</v>
+        <v>0.3623607158660889</v>
       </c>
       <c r="S100" t="n">
-        <v>0.02179074287414551</v>
+        <v>0.01929378509521484</v>
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>0.240917444229126</v>
+        <v>0.3623607158660889</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15156,7 +15156,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CatBoost_r5</t>
+          <t>CatBoost_r69</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15169,13 +15169,13 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H101" t="n">
         <v>0.8387096774193549</v>
@@ -15184,19 +15184,19 @@
         <v>0.8092592592592592</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.3201753193270432</v>
+        <v>-0.2954159286974121</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2942092608945354</v>
+        <v>0.3410946828115626</v>
       </c>
       <c r="N101" t="n">
-        <v>0.9212619556369557</v>
+        <v>0.9416601066417244</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -15204,22 +15204,22 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.003748416900634766</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.01482939720153809</v>
       </c>
       <c r="R101" t="n">
-        <v>0.714125394821167</v>
+        <v>0.8541271686553955</v>
       </c>
       <c r="S101" t="n">
-        <v>0.003748416900634766</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.01482939720153809</v>
       </c>
       <c r="U101" t="n">
-        <v>0.714125394821167</v>
+        <v>0.8541271686553955</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15228,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="Y101" t="n">
         <v>19</v>
@@ -15240,16 +15240,16 @@
         <v>1</v>
       </c>
       <c r="AB101" t="n">
-        <v>113289</v>
+        <v>146291</v>
       </c>
       <c r="AC101" t="n">
-        <v>113289</v>
+        <v>146291</v>
       </c>
       <c r="AD101" t="n">
-        <v>113289</v>
+        <v>146291</v>
       </c>
       <c r="AE101" t="n">
-        <v>113289</v>
+        <v>146291</v>
       </c>
       <c r="AF101" t="n">
         <v>0</v>
@@ -15270,12 +15270,12 @@
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL101" t="inlineStr">
         <is>
-          <t>{'iterations': 225}</t>
+          <t>{'iterations': 183}</t>
         </is>
       </c>
       <c r="AM101" t="inlineStr">
@@ -15306,7 +15306,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CatBoost_r69</t>
+          <t>CatBoost_r128</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -15340,13 +15340,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.2954159286974121</v>
+        <v>-0.3614533734407549</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3410946828115626</v>
+        <v>0.2185790140376065</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9416601066417244</v>
+        <v>0.9273680023680023</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -15354,22 +15354,22 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.004004240036010742</v>
+        <v>0.005752086639404297</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>0.002974033355712891</v>
       </c>
       <c r="R102" t="n">
-        <v>0.6984403133392334</v>
+        <v>4.496982336044312</v>
       </c>
       <c r="S102" t="n">
-        <v>0.004004240036010742</v>
+        <v>0.005752086639404297</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>0.002974033355712891</v>
       </c>
       <c r="U102" t="n">
-        <v>0.6984403133392334</v>
+        <v>4.496982336044312</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15378,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="X102" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="Y102" t="n">
         <v>19</v>
@@ -15390,16 +15390,16 @@
         <v>1</v>
       </c>
       <c r="AB102" t="n">
-        <v>146291</v>
+        <v>1163169</v>
       </c>
       <c r="AC102" t="n">
-        <v>146291</v>
+        <v>1163169</v>
       </c>
       <c r="AD102" t="n">
-        <v>146291</v>
+        <v>1163169</v>
       </c>
       <c r="AE102" t="n">
-        <v>146291</v>
+        <v>1163169</v>
       </c>
       <c r="AF102" t="n">
         <v>0</v>
@@ -15420,12 +15420,12 @@
       </c>
       <c r="AK102" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL102" t="inlineStr">
         <is>
-          <t>{'iterations': 183}</t>
+          <t>{'iterations': 236}</t>
         </is>
       </c>
       <c r="AM102" t="inlineStr">
@@ -15456,7 +15456,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CatBoost_r137</t>
+          <t>CatBoost_r5</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15466,37 +15466,37 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7533333333333333</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I103" t="n">
         <v>0.8092592592592592</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K103" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.3391210622776018</v>
+        <v>-0.3201753193270432</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2591085323855051</v>
+        <v>0.2942092608945354</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9398962148962149</v>
+        <v>0.9212619556369557</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -15504,22 +15504,22 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.005754947662353516</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.002003908157348633</v>
       </c>
       <c r="R103" t="n">
-        <v>1.116639614105225</v>
+        <v>1.000707626342773</v>
       </c>
       <c r="S103" t="n">
-        <v>0.005754947662353516</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.002003908157348633</v>
       </c>
       <c r="U103" t="n">
-        <v>1.116639614105225</v>
+        <v>1.000707626342773</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="X103" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="Y103" t="n">
         <v>19</v>
@@ -15540,16 +15540,16 @@
         <v>1</v>
       </c>
       <c r="AB103" t="n">
-        <v>197470</v>
+        <v>113289</v>
       </c>
       <c r="AC103" t="n">
-        <v>197470</v>
+        <v>113289</v>
       </c>
       <c r="AD103" t="n">
-        <v>197470</v>
+        <v>113289</v>
       </c>
       <c r="AE103" t="n">
-        <v>197470</v>
+        <v>113289</v>
       </c>
       <c r="AF103" t="n">
         <v>0</v>
@@ -15570,12 +15570,12 @@
       </c>
       <c r="AK103" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL103" t="inlineStr">
         <is>
-          <t>{'iterations': 457}</t>
+          <t>{'iterations': 225}</t>
         </is>
       </c>
       <c r="AM103" t="inlineStr">
@@ -15606,7 +15606,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CatBoost_r128</t>
+          <t>CatBoost_r137</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -15616,37 +15616,37 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I104" t="n">
         <v>0.8092592592592592</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="K104" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.3614533734407549</v>
+        <v>-0.3391210622776018</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2185790140376065</v>
+        <v>0.2591085323855051</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9273680023680023</v>
+        <v>0.9398962148962149</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -15654,22 +15654,22 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.006017446517944336</v>
+        <v>0.00635075569152832</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01564955711364746</v>
+        <v>0.002751588821411133</v>
       </c>
       <c r="R104" t="n">
-        <v>3.01145339012146</v>
+        <v>1.383826971054077</v>
       </c>
       <c r="S104" t="n">
-        <v>0.006017446517944336</v>
+        <v>0.00635075569152832</v>
       </c>
       <c r="T104" t="n">
-        <v>0.01564955711364746</v>
+        <v>0.002751588821411133</v>
       </c>
       <c r="U104" t="n">
-        <v>3.01145339012146</v>
+        <v>1.383826971054077</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="X104" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
         <v>19</v>
@@ -15690,16 +15690,16 @@
         <v>1</v>
       </c>
       <c r="AB104" t="n">
-        <v>1163169</v>
+        <v>197470</v>
       </c>
       <c r="AC104" t="n">
-        <v>1163169</v>
+        <v>197470</v>
       </c>
       <c r="AD104" t="n">
-        <v>1163169</v>
+        <v>197470</v>
       </c>
       <c r="AE104" t="n">
-        <v>1163169</v>
+        <v>197470</v>
       </c>
       <c r="AF104" t="n">
         <v>0</v>
@@ -15720,12 +15720,12 @@
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL104" t="inlineStr">
         <is>
-          <t>{'iterations': 236}</t>
+          <t>{'iterations': 457}</t>
         </is>
       </c>
       <c r="AM104" t="inlineStr">
@@ -15802,18 +15802,18 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.009771823883056641</v>
+        <v>0.01001787185668945</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>0.2200400829315186</v>
+        <v>0.2621409893035889</v>
       </c>
       <c r="S105" t="n">
-        <v>0.009771823883056641</v>
+        <v>0.01001787185668945</v>
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>0.2200400829315186</v>
+        <v>0.2621409893035889</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15948,22 +15948,22 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.01576900482177734</v>
+        <v>0.0149083137512207</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>0.01217079162597656</v>
       </c>
       <c r="R106" t="n">
-        <v>2.769310235977173</v>
+        <v>3.734417676925659</v>
       </c>
       <c r="S106" t="n">
-        <v>0.01576900482177734</v>
+        <v>0.0149083137512207</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>0.01217079162597656</v>
       </c>
       <c r="U106" t="n">
-        <v>2.769310235977173</v>
+        <v>3.734417676925659</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16098,22 +16098,22 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.01632547378540039</v>
+        <v>0.03395462036132812</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.02175188064575195</v>
+        <v>0.002132415771484375</v>
       </c>
       <c r="R107" t="n">
-        <v>1.557614088058472</v>
+        <v>2.027999639511108</v>
       </c>
       <c r="S107" t="n">
-        <v>0.002243995666503906</v>
+        <v>0.003750324249267578</v>
       </c>
       <c r="T107" t="n">
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0.1285400390625</v>
+        <v>0.1589815616607666</v>
       </c>
       <c r="V107" t="n">
         <v>2</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>['CatBoost_r198', 'NeuralNetTorch_r41']</t>
+          <t>['NeuralNetTorch_r41', 'CatBoost_r198']</t>
         </is>
       </c>
       <c r="AO107" t="inlineStr"/>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>['CatBoost_r198', 'NeuralNetTorch_r41']</t>
+          <t>['NeuralNetTorch_r41', 'CatBoost_r198']</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
@@ -16264,22 +16264,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.004998207092285156</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.007640838623046875</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="R108" t="n">
-        <v>0.3539636135101318</v>
+        <v>0.6586582660675049</v>
       </c>
       <c r="S108" t="n">
-        <v>0.004998207092285156</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="T108" t="n">
-        <v>0.007640838623046875</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="U108" t="n">
-        <v>0.3539636135101318</v>
+        <v>0.6586582660675049</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16414,22 +16414,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.003006696701049805</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="R109" t="n">
-        <v>0.7248601913452148</v>
+        <v>0.9701616764068604</v>
       </c>
       <c r="S109" t="n">
-        <v>0.003006696701049805</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="U109" t="n">
-        <v>0.7248601913452148</v>
+        <v>0.9701616764068604</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16564,22 +16564,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.06459832191467285</v>
+        <v>0.06980347633361816</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.04135394096374512</v>
+        <v>0.0528264045715332</v>
       </c>
       <c r="R110" t="n">
-        <v>0.7548708915710449</v>
+        <v>0.9965639114379883</v>
       </c>
       <c r="S110" t="n">
-        <v>0.06459832191467285</v>
+        <v>0.06980347633361816</v>
       </c>
       <c r="T110" t="n">
-        <v>0.04135394096374512</v>
+        <v>0.0528264045715332</v>
       </c>
       <c r="U110" t="n">
-        <v>0.7548708915710449</v>
+        <v>0.9965639114379883</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16714,22 +16714,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.01299238204956055</v>
+        <v>0.01502704620361328</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.01205801963806152</v>
+        <v>0.01099777221679688</v>
       </c>
       <c r="R111" t="n">
-        <v>2.209745168685913</v>
+        <v>2.548294067382812</v>
       </c>
       <c r="S111" t="n">
-        <v>0.01299238204956055</v>
+        <v>0.01502704620361328</v>
       </c>
       <c r="T111" t="n">
-        <v>0.01205801963806152</v>
+        <v>0.01099777221679688</v>
       </c>
       <c r="U111" t="n">
-        <v>2.209745168685913</v>
+        <v>2.548294067382812</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16864,22 +16864,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.006010770797729492</v>
+        <v>0.00400996208190918</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.003013849258422852</v>
+        <v>0.00200200080871582</v>
       </c>
       <c r="R112" t="n">
-        <v>1.4210524559021</v>
+        <v>1.769954919815063</v>
       </c>
       <c r="S112" t="n">
-        <v>0.006010770797729492</v>
+        <v>0.00400996208190918</v>
       </c>
       <c r="T112" t="n">
-        <v>0.003013849258422852</v>
+        <v>0.00200200080871582</v>
       </c>
       <c r="U112" t="n">
-        <v>1.4210524559021</v>
+        <v>1.769954919815063</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -17012,18 +17012,18 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.008519411087036133</v>
+        <v>0.01524519920349121</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>0.2492003440856934</v>
+        <v>0.3399333953857422</v>
       </c>
       <c r="S113" t="n">
-        <v>0.008519411087036133</v>
+        <v>0.01524519920349121</v>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>0.2492003440856934</v>
+        <v>0.3399333953857422</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17156,18 +17156,18 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.03690075874328613</v>
+        <v>0.03644585609436035</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>0.4760034084320068</v>
+        <v>0.6970212459564209</v>
       </c>
       <c r="S114" t="n">
-        <v>0.03690075874328613</v>
+        <v>0.03644585609436035</v>
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>0.4760034084320068</v>
+        <v>0.6970212459564209</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17302,22 +17302,22 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.01203751564025879</v>
+        <v>0.01377391815185547</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.0057525634765625</v>
+        <v>0.006654024124145508</v>
       </c>
       <c r="R115" t="n">
-        <v>0.5415308475494385</v>
+        <v>0.5848193168640137</v>
       </c>
       <c r="S115" t="n">
-        <v>0.01203751564025879</v>
+        <v>0.01377391815185547</v>
       </c>
       <c r="T115" t="n">
-        <v>0.0057525634765625</v>
+        <v>0.006654024124145508</v>
       </c>
       <c r="U115" t="n">
-        <v>0.5415308475494385</v>
+        <v>0.5848193168640137</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17452,22 +17452,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.005752086639404297</v>
+        <v>0.006010770797729492</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>0.7669563293457031</v>
+        <v>1.077240943908691</v>
       </c>
       <c r="S116" t="n">
-        <v>0.005752086639404297</v>
+        <v>0.006010770797729492</v>
       </c>
       <c r="T116" t="n">
         <v>0</v>
       </c>
       <c r="U116" t="n">
-        <v>0.7669563293457031</v>
+        <v>1.077240943908691</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17602,22 +17602,22 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.01001787185668945</v>
+        <v>0.009766101837158203</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>0.008810043334960938</v>
       </c>
       <c r="R117" t="n">
-        <v>0.701758861541748</v>
+        <v>0.9230241775512695</v>
       </c>
       <c r="S117" t="n">
-        <v>0.01001787185668945</v>
+        <v>0.009766101837158203</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>0.008810043334960938</v>
       </c>
       <c r="U117" t="n">
-        <v>0.701758861541748</v>
+        <v>0.9230241775512695</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17752,22 +17752,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.01202917098999023</v>
+        <v>0.0129244327545166</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.002003908157348633</v>
       </c>
       <c r="R118" t="n">
-        <v>0.2276980876922607</v>
+        <v>0.3827633857727051</v>
       </c>
       <c r="S118" t="n">
-        <v>0.01202917098999023</v>
+        <v>0.0129244327545166</v>
       </c>
       <c r="T118" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.002003908157348633</v>
       </c>
       <c r="U118" t="n">
-        <v>0.2276980876922607</v>
+        <v>0.3827633857727051</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17902,22 +17902,22 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.02200031280517578</v>
+        <v>0.02268242835998535</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.005386590957641602</v>
+        <v>0.004718542098999023</v>
       </c>
       <c r="R119" t="n">
-        <v>0.2495827674865723</v>
+        <v>0.4138755798339844</v>
       </c>
       <c r="S119" t="n">
-        <v>0.02200031280517578</v>
+        <v>0.02268242835998535</v>
       </c>
       <c r="T119" t="n">
-        <v>0.005386590957641602</v>
+        <v>0.004718542098999023</v>
       </c>
       <c r="U119" t="n">
-        <v>0.2495827674865723</v>
+        <v>0.4138755798339844</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18052,22 +18052,22 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.02579045295715332</v>
+        <v>0.0256044864654541</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="R120" t="n">
-        <v>0.6575977802276611</v>
+        <v>0.9024643898010254</v>
       </c>
       <c r="S120" t="n">
-        <v>0.02579045295715332</v>
+        <v>0.0256044864654541</v>
       </c>
       <c r="T120" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="U120" t="n">
-        <v>0.6575977802276611</v>
+        <v>0.9024643898010254</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18202,22 +18202,22 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.008023500442504883</v>
+        <v>0.009806632995605469</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.005749225616455078</v>
+        <v>0.007750988006591797</v>
       </c>
       <c r="R121" t="n">
-        <v>0.3738043308258057</v>
+        <v>0.4817957878112793</v>
       </c>
       <c r="S121" t="n">
-        <v>0.008023500442504883</v>
+        <v>0.009806632995605469</v>
       </c>
       <c r="T121" t="n">
-        <v>0.005749225616455078</v>
+        <v>0.007750988006591797</v>
       </c>
       <c r="U121" t="n">
-        <v>0.3738043308258057</v>
+        <v>0.4817957878112793</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18352,22 +18352,22 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.01020026206970215</v>
+        <v>0.01084446907043457</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.008024215698242188</v>
+        <v>0.008024454116821289</v>
       </c>
       <c r="R122" t="n">
-        <v>1.092359066009521</v>
+        <v>1.508260726928711</v>
       </c>
       <c r="S122" t="n">
-        <v>0.01020026206970215</v>
+        <v>0.01084446907043457</v>
       </c>
       <c r="T122" t="n">
-        <v>0.008024215698242188</v>
+        <v>0.008024454116821289</v>
       </c>
       <c r="U122" t="n">
-        <v>1.092359066009521</v>
+        <v>1.508260726928711</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18500,18 +18500,18 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.01175951957702637</v>
+        <v>0.01376652717590332</v>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="n">
-        <v>0.2231314182281494</v>
+        <v>0.3537149429321289</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01175951957702637</v>
+        <v>0.01376652717590332</v>
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>0.2231314182281494</v>
+        <v>0.3537149429321289</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18646,22 +18646,22 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.01203823089599609</v>
+        <v>0.01577186584472656</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01627779006958008</v>
+        <v>0.007997035980224609</v>
       </c>
       <c r="R124" t="n">
-        <v>0.653505802154541</v>
+        <v>0.8354101181030273</v>
       </c>
       <c r="S124" t="n">
-        <v>0.01203823089599609</v>
+        <v>0.01577186584472656</v>
       </c>
       <c r="T124" t="n">
-        <v>0.01627779006958008</v>
+        <v>0.007997035980224609</v>
       </c>
       <c r="U124" t="n">
-        <v>0.653505802154541</v>
+        <v>0.8354101181030273</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18748,7 +18748,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RandomForestEntr_FULL</t>
+          <t>RandomForest_r127</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -18758,54 +18758,60 @@
         <v>0.92</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E125" t="n">
-        <v>0.73</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I125" t="n">
         <v>0.7999999999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.2785303483993016</v>
+        <v>-0.2722472056486666</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3737421989873086</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0.386031599720805</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.8686303665470333</v>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.06615781784057617</v>
-      </c>
-      <c r="Q125" t="inlineStr"/>
+        <v>0.06844663619995117</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.03890728950500488</v>
+      </c>
       <c r="R125" t="n">
-        <v>0.5517041683197021</v>
+        <v>0.9416429996490479</v>
       </c>
       <c r="S125" t="n">
-        <v>0.06615781784057617</v>
-      </c>
-      <c r="T125" t="inlineStr"/>
+        <v>0.06844663619995117</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.03890728950500488</v>
+      </c>
       <c r="U125" t="n">
-        <v>0.5517041683197021</v>
+        <v>0.9416429996490479</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18814,7 +18820,7 @@
         <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="Y125" t="n">
         <v>19</v>
@@ -18826,16 +18832,16 @@
         <v>1</v>
       </c>
       <c r="AB125" t="n">
-        <v>1424424</v>
+        <v>584775</v>
       </c>
       <c r="AC125" t="n">
-        <v>1424424</v>
+        <v>584775</v>
       </c>
       <c r="AD125" t="n">
-        <v>1424424</v>
+        <v>584775</v>
       </c>
       <c r="AE125" t="n">
-        <v>1424424</v>
+        <v>584775</v>
       </c>
       <c r="AF125" t="n">
         <v>0</v>
@@ -18856,7 +18862,7 @@
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'entropy'}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 38572, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="AL125" t="inlineStr">
@@ -18866,7 +18872,7 @@
       </c>
       <c r="AM125" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN125" t="inlineStr">
@@ -18892,7 +18898,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RandomForest_r127</t>
+          <t>RandomForestEntr_FULL</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -18902,60 +18908,54 @@
         <v>0.92</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7533333333333333</v>
+        <v>0.73</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I126" t="n">
         <v>0.7999999999999999</v>
       </c>
       <c r="J126" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.5</v>
       </c>
-      <c r="K126" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="L126" t="n">
-        <v>-0.2722472056486666</v>
+        <v>-0.2785303483993016</v>
       </c>
       <c r="M126" t="n">
-        <v>0.386031599720805</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.8686303665470333</v>
-      </c>
+        <v>0.3737421989873086</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.06728625297546387</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>0.0415647029876709</v>
-      </c>
+        <v>0.06915783882141113</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.7497501373291016</v>
+        <v>0.6136660575866699</v>
       </c>
       <c r="S126" t="n">
-        <v>0.06728625297546387</v>
-      </c>
-      <c r="T126" t="n">
-        <v>0.0415647029876709</v>
-      </c>
+        <v>0.06915783882141113</v>
+      </c>
+      <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>0.7497501373291016</v>
+        <v>0.6136660575866699</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="X126" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="Y126" t="n">
         <v>19</v>
@@ -18976,16 +18976,16 @@
         <v>1</v>
       </c>
       <c r="AB126" t="n">
-        <v>584775</v>
+        <v>1424424</v>
       </c>
       <c r="AC126" t="n">
-        <v>584775</v>
+        <v>1424424</v>
       </c>
       <c r="AD126" t="n">
-        <v>584775</v>
+        <v>1424424</v>
       </c>
       <c r="AE126" t="n">
-        <v>584775</v>
+        <v>1424424</v>
       </c>
       <c r="AF126" t="n">
         <v>0</v>
@@ -19006,7 +19006,7 @@
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 38572, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 5}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'entropy'}</t>
         </is>
       </c>
       <c r="AL126" t="inlineStr">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="AM126" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN126" t="inlineStr">
@@ -19088,18 +19088,18 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.001998424530029297</v>
+        <v>0.003674507141113281</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>0.1305022239685059</v>
+        <v>0.1434037685394287</v>
       </c>
       <c r="S127" t="n">
-        <v>0.001998424530029297</v>
+        <v>0.003674507141113281</v>
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>0.1305022239685059</v>
+        <v>0.1434037685394287</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19234,22 +19234,22 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.006339788436889648</v>
+        <v>0.0051422119140625</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>0.002817630767822266</v>
       </c>
       <c r="R128" t="n">
-        <v>2.038219451904297</v>
+        <v>2.828536510467529</v>
       </c>
       <c r="S128" t="n">
-        <v>0.006339788436889648</v>
+        <v>0.0051422119140625</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>0.002817630767822266</v>
       </c>
       <c r="U128" t="n">
-        <v>2.038219451904297</v>
+        <v>2.828536510467529</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19384,22 +19384,22 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.006016731262207031</v>
+        <v>0.007761955261230469</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>1.930916786193848</v>
+        <v>2.010614633560181</v>
       </c>
       <c r="S129" t="n">
-        <v>0.006016731262207031</v>
+        <v>0.007761955261230469</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
       </c>
       <c r="U129" t="n">
-        <v>1.930916786193848</v>
+        <v>2.010614633560181</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19532,18 +19532,18 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.004010200500488281</v>
+        <v>0.006016731262207031</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="n">
-        <v>0.2081871032714844</v>
+        <v>0.2721197605133057</v>
       </c>
       <c r="S130" t="n">
-        <v>0.004010200500488281</v>
+        <v>0.006016731262207031</v>
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>0.2081871032714844</v>
+        <v>0.2721197605133057</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19678,22 +19678,22 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.01377749443054199</v>
+        <v>0.01403617858886719</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.003753423690795898</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="R131" t="n">
-        <v>0.3043637275695801</v>
+        <v>0.3462836742401123</v>
       </c>
       <c r="S131" t="n">
-        <v>0.01377749443054199</v>
+        <v>0.01403617858886719</v>
       </c>
       <c r="T131" t="n">
-        <v>0.003753423690795898</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="U131" t="n">
-        <v>0.3043637275695801</v>
+        <v>0.3462836742401123</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19826,18 +19826,18 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.01177763938903809</v>
+        <v>0.01300525665283203</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
-        <v>1.476904153823853</v>
+        <v>1.725772857666016</v>
       </c>
       <c r="S132" t="n">
-        <v>0.01177763938903809</v>
+        <v>0.01300525665283203</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>1.476904153823853</v>
+        <v>1.725772857666016</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19970,18 +19970,18 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.06545209884643555</v>
+        <v>0.07818794250488281</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
-        <v>0.534064769744873</v>
+        <v>0.7124018669128418</v>
       </c>
       <c r="S133" t="n">
-        <v>0.06545209884643555</v>
+        <v>0.07818794250488281</v>
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>0.534064769744873</v>
+        <v>0.7124018669128418</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20116,22 +20116,22 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.003274440765380859</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01575565338134766</v>
+        <v>0.003329992294311523</v>
       </c>
       <c r="R134" t="n">
-        <v>0.8984174728393555</v>
+        <v>1.167294263839722</v>
       </c>
       <c r="S134" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.003274440765380859</v>
       </c>
       <c r="T134" t="n">
-        <v>0.01575565338134766</v>
+        <v>0.003329992294311523</v>
       </c>
       <c r="U134" t="n">
-        <v>0.8984174728393555</v>
+        <v>1.167294263839722</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20266,22 +20266,22 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.006748199462890625</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>0.382044792175293</v>
+        <v>0.5289726257324219</v>
       </c>
       <c r="S135" t="n">
-        <v>0.006748199462890625</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="T135" t="n">
         <v>0</v>
       </c>
       <c r="U135" t="n">
-        <v>0.382044792175293</v>
+        <v>0.5289726257324219</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20416,22 +20416,22 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.03155994415283203</v>
+        <v>0.03711891174316406</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.005001068115234375</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="R136" t="n">
-        <v>1.744339942932129</v>
+        <v>2.551138877868652</v>
       </c>
       <c r="S136" t="n">
-        <v>0.03155994415283203</v>
+        <v>0.03711891174316406</v>
       </c>
       <c r="T136" t="n">
-        <v>0.005001068115234375</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="U136" t="n">
-        <v>1.744339942932129</v>
+        <v>2.551138877868652</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20566,22 +20566,22 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.04994678497314453</v>
+        <v>0.05214881896972656</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.01001262664794922</v>
+        <v>0.008478164672851562</v>
       </c>
       <c r="R137" t="n">
-        <v>1.361542224884033</v>
+        <v>1.940922260284424</v>
       </c>
       <c r="S137" t="n">
-        <v>0.04994678497314453</v>
+        <v>0.05214881896972656</v>
       </c>
       <c r="T137" t="n">
-        <v>0.01001262664794922</v>
+        <v>0.008478164672851562</v>
       </c>
       <c r="U137" t="n">
-        <v>1.361542224884033</v>
+        <v>1.940922260284424</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20714,18 +20714,18 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.01123476028442383</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>0.1128706932067871</v>
+        <v>0.182685375213623</v>
       </c>
       <c r="S138" t="n">
-        <v>0.01123476028442383</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>0.1128706932067871</v>
+        <v>0.182685375213623</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20858,18 +20858,18 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.01591086387634277</v>
+        <v>0.01706743240356445</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
-        <v>0.417614221572876</v>
+        <v>0.5606632232666016</v>
       </c>
       <c r="S139" t="n">
-        <v>0.01591086387634277</v>
+        <v>0.01706743240356445</v>
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>0.417614221572876</v>
+        <v>0.5606632232666016</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -21002,18 +21002,18 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.01201915740966797</v>
+        <v>0.0137779712677002</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
-        <v>1.097264051437378</v>
+        <v>1.441768169403076</v>
       </c>
       <c r="S140" t="n">
-        <v>0.01201915740966797</v>
+        <v>0.0137779712677002</v>
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>1.097264051437378</v>
+        <v>1.441768169403076</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21148,22 +21148,22 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.006010293960571289</v>
+        <v>0.006014585494995117</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="R141" t="n">
-        <v>1.016175746917725</v>
+        <v>1.111954927444458</v>
       </c>
       <c r="S141" t="n">
-        <v>0.006010293960571289</v>
+        <v>0.006014585494995117</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="U141" t="n">
-        <v>1.016175746917725</v>
+        <v>1.111954927444458</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21298,22 +21298,22 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.006324529647827148</v>
+        <v>0.005852460861206055</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.01603341102600098</v>
+        <v>0.003448247909545898</v>
       </c>
       <c r="R142" t="n">
-        <v>0.408266544342041</v>
+        <v>0.6827628612518311</v>
       </c>
       <c r="S142" t="n">
-        <v>0.006324529647827148</v>
+        <v>0.005852460861206055</v>
       </c>
       <c r="T142" t="n">
-        <v>0.01603341102600098</v>
+        <v>0.003448247909545898</v>
       </c>
       <c r="U142" t="n">
-        <v>0.408266544342041</v>
+        <v>0.6827628612518311</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21446,18 +21446,18 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.009764909744262695</v>
+        <v>0.009640932083129883</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
-        <v>0.1487476825714111</v>
+        <v>0.1979501247406006</v>
       </c>
       <c r="S143" t="n">
-        <v>0.009764909744262695</v>
+        <v>0.009640932083129883</v>
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>0.1487476825714111</v>
+        <v>0.1979501247406006</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21592,22 +21592,22 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.01490497589111328</v>
+        <v>0.01377010345458984</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.01393365859985352</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="R144" t="n">
-        <v>0.8196148872375488</v>
+        <v>1.125467300415039</v>
       </c>
       <c r="S144" t="n">
-        <v>0.01490497589111328</v>
+        <v>0.01377010345458984</v>
       </c>
       <c r="T144" t="n">
-        <v>0.01393365859985352</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="U144" t="n">
-        <v>0.8196148872375488</v>
+        <v>1.125467300415039</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21740,18 +21740,18 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.008421182632446289</v>
+        <v>0.003455162048339844</v>
       </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
-        <v>0.3301694393157959</v>
+        <v>0.3931674957275391</v>
       </c>
       <c r="S145" t="n">
-        <v>0.008421182632446289</v>
+        <v>0.003455162048339844</v>
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>0.3301694393157959</v>
+        <v>0.3931674957275391</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21884,18 +21884,18 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.01681756973266602</v>
+        <v>0.01491308212280273</v>
       </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
-        <v>1.039754629135132</v>
+        <v>1.530278921127319</v>
       </c>
       <c r="S146" t="n">
-        <v>0.01681756973266602</v>
+        <v>0.01491308212280273</v>
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>1.039754629135132</v>
+        <v>1.530278921127319</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -22030,22 +22030,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.005382299423217773</v>
+        <v>0.01207995414733887</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.01573944091796875</v>
+        <v>0.008733034133911133</v>
       </c>
       <c r="R147" t="n">
-        <v>1.699733734130859</v>
+        <v>2.423401594161987</v>
       </c>
       <c r="S147" t="n">
-        <v>0.005382299423217773</v>
+        <v>0.01207995414733887</v>
       </c>
       <c r="T147" t="n">
-        <v>0.01573944091796875</v>
+        <v>0.008733034133911133</v>
       </c>
       <c r="U147" t="n">
-        <v>1.699733734130859</v>
+        <v>2.423401594161987</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22178,18 +22178,18 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.0140080451965332</v>
+        <v>0.01376605033874512</v>
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
-        <v>1.254939794540405</v>
+        <v>1.579999923706055</v>
       </c>
       <c r="S148" t="n">
-        <v>0.0140080451965332</v>
+        <v>0.01376605033874512</v>
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>1.254939794540405</v>
+        <v>1.579999923706055</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22324,22 +22324,22 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.01960158348083496</v>
+        <v>0.01244831085205078</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.004012823104858398</v>
+        <v>0.004011392593383789</v>
       </c>
       <c r="R149" t="n">
-        <v>0.2701296806335449</v>
+        <v>0.4318442344665527</v>
       </c>
       <c r="S149" t="n">
-        <v>0.01960158348083496</v>
+        <v>0.01244831085205078</v>
       </c>
       <c r="T149" t="n">
-        <v>0.004012823104858398</v>
+        <v>0.004011392593383789</v>
       </c>
       <c r="U149" t="n">
-        <v>0.2701296806335449</v>
+        <v>0.4318442344665527</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22474,22 +22474,22 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.05166816711425781</v>
+        <v>0.05167937278747559</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.04040074348449707</v>
+        <v>0.03886628150939941</v>
       </c>
       <c r="R150" t="n">
-        <v>0.7952146530151367</v>
+        <v>0.8843927383422852</v>
       </c>
       <c r="S150" t="n">
-        <v>0.05166816711425781</v>
+        <v>0.05167937278747559</v>
       </c>
       <c r="T150" t="n">
-        <v>0.04040074348449707</v>
+        <v>0.03886628150939941</v>
       </c>
       <c r="U150" t="n">
-        <v>0.7952146530151367</v>
+        <v>0.8843927383422852</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22576,7 +22576,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r88</t>
+          <t>NeuralNetTorch_r121_FULL</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -22586,38 +22586,36 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E151" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.7237076648841354</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I151" t="n">
         <v>0.773611111111111</v>
       </c>
       <c r="J151" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="K151" t="n">
         <v>0.5</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.4279824821365178</v>
+        <v>-0.2721327366166405</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1030667543976198</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.8256814944314945</v>
-      </c>
+        <v>0.386256238241403</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
           <t>roc_auc</t>
@@ -22626,20 +22624,16 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="n">
-        <v>0.01568698883056641</v>
-      </c>
+      <c r="Q151" t="inlineStr"/>
       <c r="R151" t="n">
-        <v>1.908521890640259</v>
+        <v>0.3868093490600586</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
       </c>
-      <c r="T151" t="n">
-        <v>0.01568698883056641</v>
-      </c>
+      <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>1.908521890640259</v>
+        <v>0.3868093490600586</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22648,7 +22642,7 @@
         <v>1</v>
       </c>
       <c r="X151" t="n">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="Y151" t="n">
         <v>19</v>
@@ -22660,16 +22654,16 @@
         <v>1</v>
       </c>
       <c r="AB151" t="n">
-        <v>85172</v>
+        <v>1023342</v>
       </c>
       <c r="AC151" t="n">
-        <v>85172</v>
+        <v>1023342</v>
       </c>
       <c r="AD151" t="n">
-        <v>85172</v>
+        <v>1023342</v>
       </c>
       <c r="AE151" t="n">
-        <v>85172</v>
+        <v>1023342</v>
       </c>
       <c r="AF151" t="n">
         <v>0</v>
@@ -22679,28 +22673,28 @@
       </c>
       <c r="AH151" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI151" t="inlineStr"/>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.4329361816589235, 'ps': 0.2863378667611431, 'bs': 1024, 'lr': 0.09501311551121323, 'epochs': 50, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'num_epochs': 7, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.33926015213879396, 'optimizer': 'adam', 'learning_rate': 0.0029983839090226075, 'weight_decay': 0.00038926240517691234, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 247, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL151" t="inlineStr">
         <is>
-          <t>{'epochs': 50, 'best_epoch': 22}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM151" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN151" t="inlineStr">
@@ -22726,7 +22720,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r121_FULL</t>
+          <t>NeuralNetFastAI_r88</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -22736,54 +22730,60 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E152" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7237076648841354</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I152" t="n">
         <v>0.773611111111111</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K152" t="n">
         <v>0.5</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.2721327366166405</v>
+        <v>-0.4279824821365178</v>
       </c>
       <c r="M152" t="n">
-        <v>0.386256238241403</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0.1030667543976198</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.8256814944314945</v>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.009829521179199219</v>
-      </c>
-      <c r="Q152" t="inlineStr"/>
+        <v>0.01067686080932617</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.01130938529968262</v>
+      </c>
       <c r="R152" t="n">
-        <v>0.3163387775421143</v>
+        <v>2.29883337020874</v>
       </c>
       <c r="S152" t="n">
-        <v>0.009829521179199219</v>
-      </c>
-      <c r="T152" t="inlineStr"/>
+        <v>0.01067686080932617</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0.01130938529968262</v>
+      </c>
       <c r="U152" t="n">
-        <v>0.3163387775421143</v>
+        <v>2.29883337020874</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22792,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="X152" t="n">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="Y152" t="n">
         <v>19</v>
@@ -22804,16 +22804,16 @@
         <v>1</v>
       </c>
       <c r="AB152" t="n">
-        <v>1023342</v>
+        <v>85172</v>
       </c>
       <c r="AC152" t="n">
-        <v>1023342</v>
+        <v>85172</v>
       </c>
       <c r="AD152" t="n">
-        <v>1023342</v>
+        <v>85172</v>
       </c>
       <c r="AE152" t="n">
-        <v>1023342</v>
+        <v>85172</v>
       </c>
       <c r="AF152" t="n">
         <v>0</v>
@@ -22823,28 +22823,28 @@
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr"/>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>{'num_epochs': 7, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.33926015213879396, 'optimizer': 'adam', 'learning_rate': 0.0029983839090226075, 'weight_decay': 0.00038926240517691234, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 247, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [400], 'emb_drop': 0.4329361816589235, 'ps': 0.2863378667611431, 'bs': 1024, 'lr': 0.09501311551121323, 'epochs': 50, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 50, 'best_epoch': 22}</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
@@ -22918,22 +22918,22 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.02111291885375977</v>
+        <v>0.0208427906036377</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.009537458419799805</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="R153" t="n">
-        <v>1.315604686737061</v>
+        <v>2.030805826187134</v>
       </c>
       <c r="S153" t="n">
-        <v>0.02111291885375977</v>
+        <v>0.0208427906036377</v>
       </c>
       <c r="T153" t="n">
-        <v>0.009537458419799805</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="U153" t="n">
-        <v>1.315604686737061</v>
+        <v>2.030805826187134</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -23066,18 +23066,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.01028871536254883</v>
+        <v>0.01175999641418457</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>0.1342141628265381</v>
+        <v>0.1708567142486572</v>
       </c>
       <c r="S154" t="n">
-        <v>0.01028871536254883</v>
+        <v>0.01175999641418457</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>0.1342141628265381</v>
+        <v>0.1708567142486572</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23210,18 +23210,18 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.008892059326171875</v>
+        <v>0.009758472442626953</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
-        <v>0.1458542346954346</v>
+        <v>0.2178959846496582</v>
       </c>
       <c r="S155" t="n">
-        <v>0.008892059326171875</v>
+        <v>0.009758472442626953</v>
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>0.1458542346954346</v>
+        <v>0.2178959846496582</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23308,7 +23308,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RandomForest_r166_FULL</t>
+          <t>RandomForestGini_FULL</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -23354,18 +23354,18 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.05302047729492188</v>
+        <v>0.06759047508239746</v>
       </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>0.8580350875854492</v>
+        <v>0.6266584396362305</v>
       </c>
       <c r="S156" t="n">
-        <v>0.05302047729492188</v>
+        <v>0.06759047508239746</v>
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>0.8580350875854492</v>
+        <v>0.6266584396362305</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23374,7 +23374,7 @@
         <v>1</v>
       </c>
       <c r="X156" t="n">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="Y156" t="n">
         <v>19</v>
@@ -23386,16 +23386,16 @@
         <v>1</v>
       </c>
       <c r="AB156" t="n">
-        <v>1504168</v>
+        <v>1504110</v>
       </c>
       <c r="AC156" t="n">
-        <v>1504168</v>
+        <v>1504110</v>
       </c>
       <c r="AD156" t="n">
-        <v>1504168</v>
+        <v>1504110</v>
       </c>
       <c r="AE156" t="n">
-        <v>1504168</v>
+        <v>1504110</v>
       </c>
       <c r="AF156" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 42644, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 'log2', 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'gini'}</t>
         </is>
       </c>
       <c r="AL156" t="inlineStr">
@@ -23452,7 +23452,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RandomForestGini_FULL</t>
+          <t>RandomForest_r166_FULL</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -23498,18 +23498,18 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.06541013717651367</v>
+        <v>0.06850457191467285</v>
       </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="n">
-        <v>0.5260534286499023</v>
+        <v>1.135640144348145</v>
       </c>
       <c r="S157" t="n">
-        <v>0.06541013717651367</v>
+        <v>0.06850457191467285</v>
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>0.5260534286499023</v>
+        <v>1.135640144348145</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23518,7 +23518,7 @@
         <v>1</v>
       </c>
       <c r="X157" t="n">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="Y157" t="n">
         <v>19</v>
@@ -23530,16 +23530,16 @@
         <v>1</v>
       </c>
       <c r="AB157" t="n">
-        <v>1504110</v>
+        <v>1504168</v>
       </c>
       <c r="AC157" t="n">
-        <v>1504110</v>
+        <v>1504168</v>
       </c>
       <c r="AD157" t="n">
-        <v>1504110</v>
+        <v>1504168</v>
       </c>
       <c r="AE157" t="n">
-        <v>1504110</v>
+        <v>1504168</v>
       </c>
       <c r="AF157" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'gini'}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 42644, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 'log2', 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL157" t="inlineStr">
@@ -23642,18 +23642,18 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.01377558708190918</v>
+        <v>0.01341438293457031</v>
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="n">
-        <v>0.3396155834197998</v>
+        <v>0.5368926525115967</v>
       </c>
       <c r="S158" t="n">
-        <v>0.01377558708190918</v>
+        <v>0.01341438293457031</v>
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>0.3396155834197998</v>
+        <v>0.5368926525115967</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23788,22 +23788,22 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.01302599906921387</v>
+        <v>0.01534318923950195</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.006007194519042969</v>
+        <v>0.00652623176574707</v>
       </c>
       <c r="R159" t="n">
-        <v>2.372945308685303</v>
+        <v>3.069180011749268</v>
       </c>
       <c r="S159" t="n">
-        <v>0.01302599906921387</v>
+        <v>0.01534318923950195</v>
       </c>
       <c r="T159" t="n">
-        <v>0.006007194519042969</v>
+        <v>0.00652623176574707</v>
       </c>
       <c r="U159" t="n">
-        <v>2.372945308685303</v>
+        <v>3.069180011749268</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23938,22 +23938,22 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.01642966270446777</v>
+        <v>0.01656246185302734</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="R160" t="n">
-        <v>0.3466324806213379</v>
+        <v>0.5312817096710205</v>
       </c>
       <c r="S160" t="n">
-        <v>0.01642966270446777</v>
+        <v>0.01656246185302734</v>
       </c>
       <c r="T160" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="U160" t="n">
-        <v>0.3466324806213379</v>
+        <v>0.5312817096710205</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24088,22 +24088,22 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.004516839981079102</v>
+        <v>0.01577496528625488</v>
       </c>
       <c r="Q161" t="n">
-        <v>0</v>
+        <v>0.01238298416137695</v>
       </c>
       <c r="R161" t="n">
-        <v>1.307070255279541</v>
+        <v>1.596711397171021</v>
       </c>
       <c r="S161" t="n">
-        <v>0.004516839981079102</v>
+        <v>0.01577496528625488</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>0.01238298416137695</v>
       </c>
       <c r="U161" t="n">
-        <v>1.307070255279541</v>
+        <v>1.596711397171021</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24238,22 +24238,22 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01153779029846191</v>
+        <v>0.0142214298248291</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.006009101867675781</v>
+        <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>0.5659282207489014</v>
+        <v>0.6066200733184814</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01153779029846191</v>
+        <v>0.0142214298248291</v>
       </c>
       <c r="T162" t="n">
-        <v>0.006009101867675781</v>
+        <v>0</v>
       </c>
       <c r="U162" t="n">
-        <v>0.5659282207489014</v>
+        <v>0.6066200733184814</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24388,22 +24388,22 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.07011532783508301</v>
+        <v>0.07414460182189941</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.03949594497680664</v>
+        <v>0.03863334655761719</v>
       </c>
       <c r="R163" t="n">
-        <v>0.5136234760284424</v>
+        <v>0.5762474536895752</v>
       </c>
       <c r="S163" t="n">
-        <v>0.07011532783508301</v>
+        <v>0.07414460182189941</v>
       </c>
       <c r="T163" t="n">
-        <v>0.03949594497680664</v>
+        <v>0.03863334655761719</v>
       </c>
       <c r="U163" t="n">
-        <v>0.5136234760284424</v>
+        <v>0.5762474536895752</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24536,18 +24536,18 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.01404142379760742</v>
+        <v>0.0145714282989502</v>
       </c>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>0.5225234031677246</v>
+        <v>0.6031656265258789</v>
       </c>
       <c r="S164" t="n">
-        <v>0.01404142379760742</v>
+        <v>0.0145714282989502</v>
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>0.5225234031677246</v>
+        <v>0.6031656265258789</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24682,22 +24682,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.01753592491149902</v>
+        <v>0.01695585250854492</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.006009101867675781</v>
+        <v>0.01001763343811035</v>
       </c>
       <c r="R165" t="n">
-        <v>1.272130250930786</v>
+        <v>1.606564283370972</v>
       </c>
       <c r="S165" t="n">
-        <v>0.01753592491149902</v>
+        <v>0.01695585250854492</v>
       </c>
       <c r="T165" t="n">
-        <v>0.006009101867675781</v>
+        <v>0.01001763343811035</v>
       </c>
       <c r="U165" t="n">
-        <v>1.272130250930786</v>
+        <v>1.606564283370972</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24830,18 +24830,18 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.01303315162658691</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>0.2651965618133545</v>
+        <v>0.3701300621032715</v>
       </c>
       <c r="S166" t="n">
-        <v>0.01303315162658691</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>0.2651965618133545</v>
+        <v>0.3701300621032715</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24976,22 +24976,22 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01176691055297852</v>
+        <v>0.01376819610595703</v>
       </c>
       <c r="Q167" t="n">
-        <v>0</v>
+        <v>0.006649017333984375</v>
       </c>
       <c r="R167" t="n">
-        <v>0.3846371173858643</v>
+        <v>0.5254795551300049</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01176691055297852</v>
+        <v>0.01376819610595703</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>0.006649017333984375</v>
       </c>
       <c r="U167" t="n">
-        <v>0.3846371173858643</v>
+        <v>0.5254795551300049</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25126,22 +25126,22 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.05331063270568848</v>
+        <v>0.05011606216430664</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.03774118423461914</v>
+        <v>0.05106496810913086</v>
       </c>
       <c r="R168" t="n">
-        <v>0.843184232711792</v>
+        <v>1.014733552932739</v>
       </c>
       <c r="S168" t="n">
-        <v>0.05331063270568848</v>
+        <v>0.05011606216430664</v>
       </c>
       <c r="T168" t="n">
-        <v>0.03774118423461914</v>
+        <v>0.05106496810913086</v>
       </c>
       <c r="U168" t="n">
-        <v>0.843184232711792</v>
+        <v>1.014733552932739</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25276,22 +25276,22 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.06707072257995605</v>
+        <v>0.07561731338500977</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.04120659828186035</v>
+        <v>0.03780746459960938</v>
       </c>
       <c r="R169" t="n">
-        <v>0.8458547592163086</v>
+        <v>0.6499886512756348</v>
       </c>
       <c r="S169" t="n">
-        <v>0.06707072257995605</v>
+        <v>0.07561731338500977</v>
       </c>
       <c r="T169" t="n">
-        <v>0.04120659828186035</v>
+        <v>0.03780746459960938</v>
       </c>
       <c r="U169" t="n">
-        <v>0.8458547592163086</v>
+        <v>0.6499886512756348</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25426,22 +25426,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.01405644416809082</v>
+        <v>0</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.008015632629394531</v>
+        <v>0.01328563690185547</v>
       </c>
       <c r="R170" t="n">
-        <v>2.468060493469238</v>
+        <v>2.952956438064575</v>
       </c>
       <c r="S170" t="n">
-        <v>0.01405644416809082</v>
+        <v>0</v>
       </c>
       <c r="T170" t="n">
-        <v>0.008015632629394531</v>
+        <v>0.01328563690185547</v>
       </c>
       <c r="U170" t="n">
-        <v>2.468060493469238</v>
+        <v>2.952956438064575</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25576,22 +25576,22 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.06635284423828125</v>
+        <v>0.06952691078186035</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.09339118003845215</v>
+        <v>0.0743708610534668</v>
       </c>
       <c r="R171" t="n">
-        <v>0.8547494411468506</v>
+        <v>1.044752836227417</v>
       </c>
       <c r="S171" t="n">
-        <v>0.06635284423828125</v>
+        <v>0.06952691078186035</v>
       </c>
       <c r="T171" t="n">
-        <v>0.09339118003845215</v>
+        <v>0.0743708610534668</v>
       </c>
       <c r="U171" t="n">
-        <v>0.8547494411468506</v>
+        <v>1.044752836227417</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25724,18 +25724,18 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.01448774337768555</v>
+        <v>0.01542758941650391</v>
       </c>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="n">
-        <v>0.1404950618743896</v>
+        <v>0.1910355091094971</v>
       </c>
       <c r="S172" t="n">
-        <v>0.01448774337768555</v>
+        <v>0.01542758941650391</v>
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>0.1404950618743896</v>
+        <v>0.1910355091094971</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25868,18 +25868,18 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.0135953426361084</v>
+        <v>0.0154879093170166</v>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="n">
-        <v>2.539928436279297</v>
+        <v>3.350877523422241</v>
       </c>
       <c r="S173" t="n">
-        <v>0.0135953426361084</v>
+        <v>0.0154879093170166</v>
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>2.539928436279297</v>
+        <v>3.350877523422241</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -26014,22 +26014,22 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.05465888977050781</v>
+        <v>0.06744742393493652</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.04223227500915527</v>
+        <v>0.06378936767578125</v>
       </c>
       <c r="R174" t="n">
-        <v>0.8272333145141602</v>
+        <v>1.006518840789795</v>
       </c>
       <c r="S174" t="n">
-        <v>0.05465888977050781</v>
+        <v>0.06744742393493652</v>
       </c>
       <c r="T174" t="n">
-        <v>0.04223227500915527</v>
+        <v>0.06378936767578125</v>
       </c>
       <c r="U174" t="n">
-        <v>0.8272333145141602</v>
+        <v>1.006518840789795</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26164,22 +26164,22 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.01177763938903809</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.01067662239074707</v>
+        <v>0.01422572135925293</v>
       </c>
       <c r="R175" t="n">
-        <v>1.990164279937744</v>
+        <v>2.157119750976562</v>
       </c>
       <c r="S175" t="n">
-        <v>0.01177763938903809</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="T175" t="n">
-        <v>0.01067662239074707</v>
+        <v>0.01422572135925293</v>
       </c>
       <c r="U175" t="n">
-        <v>1.990164279937744</v>
+        <v>2.157119750976562</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26314,22 +26314,22 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.01177668571472168</v>
+        <v>0.01394057273864746</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.003291606903076172</v>
+        <v>0.006014823913574219</v>
       </c>
       <c r="R176" t="n">
-        <v>0.5261905193328857</v>
+        <v>0.6028308868408203</v>
       </c>
       <c r="S176" t="n">
-        <v>0.01177668571472168</v>
+        <v>0.01394057273864746</v>
       </c>
       <c r="T176" t="n">
-        <v>0.003291606903076172</v>
+        <v>0.006014823913574219</v>
       </c>
       <c r="U176" t="n">
-        <v>0.5261905193328857</v>
+        <v>0.6028308868408203</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26462,18 +26462,18 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.01323699951171875</v>
+        <v>0.01201868057250977</v>
       </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="n">
-        <v>0.3541059494018555</v>
+        <v>0.411945104598999</v>
       </c>
       <c r="S177" t="n">
-        <v>0.01323699951171875</v>
+        <v>0.01201868057250977</v>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>0.3541059494018555</v>
+        <v>0.411945104598999</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26606,18 +26606,18 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.01406359672546387</v>
+        <v>0.01777434349060059</v>
       </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="n">
-        <v>0.5832893848419189</v>
+        <v>0.7688608169555664</v>
       </c>
       <c r="S178" t="n">
-        <v>0.01406359672546387</v>
+        <v>0.01777434349060059</v>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>0.5832893848419189</v>
+        <v>0.7688608169555664</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26752,22 +26752,22 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.06263113021850586</v>
+        <v>0.0653228759765625</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.04224109649658203</v>
+        <v>0.05280494689941406</v>
       </c>
       <c r="R179" t="n">
-        <v>0.5328173637390137</v>
+        <v>0.6806302070617676</v>
       </c>
       <c r="S179" t="n">
-        <v>0.06263113021850586</v>
+        <v>0.0653228759765625</v>
       </c>
       <c r="T179" t="n">
-        <v>0.04224109649658203</v>
+        <v>0.05280494689941406</v>
       </c>
       <c r="U179" t="n">
-        <v>0.5328173637390137</v>
+        <v>0.6806302070617676</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26902,22 +26902,22 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.01482582092285156</v>
+        <v>0.01553606986999512</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.007756471633911133</v>
+        <v>0.01011967658996582</v>
       </c>
       <c r="R180" t="n">
-        <v>2.961690187454224</v>
+        <v>3.827797412872314</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01482582092285156</v>
+        <v>0.01553606986999512</v>
       </c>
       <c r="T180" t="n">
-        <v>0.007756471633911133</v>
+        <v>0.01011967658996582</v>
       </c>
       <c r="U180" t="n">
-        <v>2.961690187454224</v>
+        <v>3.827797412872314</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27052,22 +27052,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.06575655937194824</v>
+        <v>0.06797552108764648</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.03933954238891602</v>
+        <v>0.03889632225036621</v>
       </c>
       <c r="R181" t="n">
-        <v>0.5665228366851807</v>
+        <v>0.6949315071105957</v>
       </c>
       <c r="S181" t="n">
-        <v>0.06575655937194824</v>
+        <v>0.06797552108764648</v>
       </c>
       <c r="T181" t="n">
-        <v>0.03933954238891602</v>
+        <v>0.03889632225036621</v>
       </c>
       <c r="U181" t="n">
-        <v>0.5665228366851807</v>
+        <v>0.6949315071105957</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27200,18 +27200,18 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01002693176269531</v>
+        <v>0.009758472442626953</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="n">
-        <v>0.055145263671875</v>
+        <v>0.05738520622253418</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01002693176269531</v>
+        <v>0.009758472442626953</v>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>0.055145263671875</v>
+        <v>0.05738520622253418</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27344,18 +27344,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.0124046802520752</v>
+        <v>0.01366877555847168</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>0.09494256973266602</v>
+        <v>0.136610746383667</v>
       </c>
       <c r="S183" t="n">
-        <v>0.0124046802520752</v>
+        <v>0.01366877555847168</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>0.09494256973266602</v>
+        <v>0.136610746383667</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27488,18 +27488,18 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.007929563522338867</v>
+        <v>0.01967620849609375</v>
       </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
-        <v>0.05051565170288086</v>
+        <v>0.0610191822052002</v>
       </c>
       <c r="S184" t="n">
-        <v>0.007929563522338867</v>
+        <v>0.01967620849609375</v>
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>0.05051565170288086</v>
+        <v>0.0610191822052002</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27634,22 +27634,22 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0</v>
+        <v>0.009505748748779297</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.001703739166259766</v>
+        <v>0.008833646774291992</v>
       </c>
       <c r="R185" t="n">
-        <v>0.2824058532714844</v>
+        <v>0.363274097442627</v>
       </c>
       <c r="S185" t="n">
-        <v>0</v>
+        <v>0.009505748748779297</v>
       </c>
       <c r="T185" t="n">
-        <v>0.001703739166259766</v>
+        <v>0.008833646774291992</v>
       </c>
       <c r="U185" t="n">
-        <v>0.2824058532714844</v>
+        <v>0.363274097442627</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27782,18 +27782,18 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.06784653663635254</v>
+        <v>0.07839417457580566</v>
       </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
-        <v>0.5114097595214844</v>
+        <v>0.6546618938446045</v>
       </c>
       <c r="S186" t="n">
-        <v>0.06784653663635254</v>
+        <v>0.07839417457580566</v>
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>0.5114097595214844</v>
+        <v>0.6546618938446045</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27928,22 +27928,22 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.01696348190307617</v>
+        <v>0.01779031753540039</v>
       </c>
       <c r="Q187" t="n">
-        <v>0</v>
+        <v>0.00944066047668457</v>
       </c>
       <c r="R187" t="n">
-        <v>1.076121091842651</v>
+        <v>1.527147769927979</v>
       </c>
       <c r="S187" t="n">
-        <v>0.01696348190307617</v>
+        <v>0.01779031753540039</v>
       </c>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>0.00944066047668457</v>
       </c>
       <c r="U187" t="n">
-        <v>1.076121091842651</v>
+        <v>1.527147769927979</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -28078,22 +28078,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.01492190361022949</v>
+        <v>0.01501798629760742</v>
       </c>
       <c r="Q188" t="n">
-        <v>0</v>
+        <v>0.01619839668273926</v>
       </c>
       <c r="R188" t="n">
-        <v>2.184012174606323</v>
+        <v>3.331301212310791</v>
       </c>
       <c r="S188" t="n">
-        <v>0.01492190361022949</v>
+        <v>0.01501798629760742</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>0.01619839668273926</v>
       </c>
       <c r="U188" t="n">
-        <v>2.184012174606323</v>
+        <v>3.331301212310791</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28226,18 +28226,18 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.06610798835754395</v>
+        <v>0.06815290451049805</v>
       </c>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="n">
-        <v>0.6881392002105713</v>
+        <v>0.8480291366577148</v>
       </c>
       <c r="S189" t="n">
-        <v>0.06610798835754395</v>
+        <v>0.06815290451049805</v>
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>0.6881392002105713</v>
+        <v>0.8480291366577148</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28370,18 +28370,18 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.05084037780761719</v>
+        <v>0.05104875564575195</v>
       </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
-        <v>0.6710836887359619</v>
+        <v>0.6467595100402832</v>
       </c>
       <c r="S190" t="n">
-        <v>0.05084037780761719</v>
+        <v>0.05104875564575195</v>
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>0.6710836887359619</v>
+        <v>0.6467595100402832</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28514,18 +28514,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.06673645973205566</v>
+        <v>0.07115602493286133</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.9390223026275635</v>
+        <v>0.784550666809082</v>
       </c>
       <c r="S191" t="n">
-        <v>0.06673645973205566</v>
+        <v>0.07115602493286133</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.9390223026275635</v>
+        <v>0.784550666809082</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28660,22 +28660,22 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.0109248161315918</v>
+        <v>0.009067535400390625</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.006011724472045898</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="R192" t="n">
-        <v>0.5393149852752686</v>
+        <v>0.6586308479309082</v>
       </c>
       <c r="S192" t="n">
-        <v>0.0109248161315918</v>
+        <v>0.009067535400390625</v>
       </c>
       <c r="T192" t="n">
-        <v>0.006011724472045898</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="U192" t="n">
-        <v>0.5393149852752686</v>
+        <v>0.6586308479309082</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28810,22 +28810,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.007757902145385742</v>
+        <v>0.009361743927001953</v>
       </c>
       <c r="Q193" t="n">
-        <v>0</v>
+        <v>0.00826573371887207</v>
       </c>
       <c r="R193" t="n">
-        <v>0.2370603084564209</v>
+        <v>0.2737398147583008</v>
       </c>
       <c r="S193" t="n">
-        <v>0.007757902145385742</v>
+        <v>0.009361743927001953</v>
       </c>
       <c r="T193" t="n">
-        <v>0</v>
+        <v>0.00826573371887207</v>
       </c>
       <c r="U193" t="n">
-        <v>0.2370603084564209</v>
+        <v>0.2737398147583008</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28958,18 +28958,18 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.05172324180603027</v>
+        <v>0.05305171012878418</v>
       </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
-        <v>0.5168986320495605</v>
+        <v>0.6246740818023682</v>
       </c>
       <c r="S194" t="n">
-        <v>0.05172324180603027</v>
+        <v>0.05305171012878418</v>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="n">
-        <v>0.5168986320495605</v>
+        <v>0.6246740818023682</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29104,22 +29104,22 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.09674215316772461</v>
+        <v>0.05046725273132324</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.04256176948547363</v>
+        <v>0.04021382331848145</v>
       </c>
       <c r="R195" t="n">
-        <v>0.6613118648529053</v>
+        <v>0.6082549095153809</v>
       </c>
       <c r="S195" t="n">
-        <v>0.09674215316772461</v>
+        <v>0.05046725273132324</v>
       </c>
       <c r="T195" t="n">
-        <v>0.04256176948547363</v>
+        <v>0.04021382331848145</v>
       </c>
       <c r="U195" t="n">
-        <v>0.6613118648529053</v>
+        <v>0.6082549095153809</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29252,18 +29252,18 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.01126289367675781</v>
+        <v>0.0142521858215332</v>
       </c>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="n">
-        <v>0.2528085708618164</v>
+        <v>0.2742266654968262</v>
       </c>
       <c r="S196" t="n">
-        <v>0.01126289367675781</v>
+        <v>0.0142521858215332</v>
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
-        <v>0.2528085708618164</v>
+        <v>0.2742266654968262</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29398,22 +29398,22 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.05181694030761719</v>
+        <v>0.05833745002746582</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.05266690254211426</v>
+        <v>0.03770804405212402</v>
       </c>
       <c r="R197" t="n">
-        <v>0.5133049488067627</v>
+        <v>0.6410617828369141</v>
       </c>
       <c r="S197" t="n">
-        <v>0.05181694030761719</v>
+        <v>0.05833745002746582</v>
       </c>
       <c r="T197" t="n">
-        <v>0.05266690254211426</v>
+        <v>0.03770804405212402</v>
       </c>
       <c r="U197" t="n">
-        <v>0.5133049488067627</v>
+        <v>0.6410617828369141</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29548,22 +29548,22 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.06921815872192383</v>
+        <v>0.06842327117919922</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.0404198169708252</v>
+        <v>0.03937792778015137</v>
       </c>
       <c r="R198" t="n">
-        <v>0.6295013427734375</v>
+        <v>0.7823398113250732</v>
       </c>
       <c r="S198" t="n">
-        <v>0.06921815872192383</v>
+        <v>0.06842327117919922</v>
       </c>
       <c r="T198" t="n">
-        <v>0.0404198169708252</v>
+        <v>0.03937792778015137</v>
       </c>
       <c r="U198" t="n">
-        <v>0.6295013427734375</v>
+        <v>0.7823398113250732</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29698,22 +29698,22 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.06550073623657227</v>
+        <v>0.0667116641998291</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.03920507431030273</v>
+        <v>0.03981280326843262</v>
       </c>
       <c r="R199" t="n">
-        <v>0.6394968032836914</v>
+        <v>0.8210484981536865</v>
       </c>
       <c r="S199" t="n">
-        <v>0.06550073623657227</v>
+        <v>0.0667116641998291</v>
       </c>
       <c r="T199" t="n">
-        <v>0.03920507431030273</v>
+        <v>0.03981280326843262</v>
       </c>
       <c r="U199" t="n">
-        <v>0.6394968032836914</v>
+        <v>0.8210484981536865</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29846,18 +29846,18 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.05249333381652832</v>
+        <v>0.0527946949005127</v>
       </c>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="n">
-        <v>0.6336128711700439</v>
+        <v>0.8186507225036621</v>
       </c>
       <c r="S200" t="n">
-        <v>0.05249333381652832</v>
+        <v>0.0527946949005127</v>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>0.6336128711700439</v>
+        <v>0.8186507225036621</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29992,22 +29992,22 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.01053762435913086</v>
+        <v>0.009758949279785156</v>
       </c>
       <c r="Q201" t="n">
-        <v>0</v>
+        <v>0.01653242111206055</v>
       </c>
       <c r="R201" t="n">
-        <v>0.373906135559082</v>
+        <v>0.5006401538848877</v>
       </c>
       <c r="S201" t="n">
-        <v>0.01053762435913086</v>
+        <v>0.009758949279785156</v>
       </c>
       <c r="T201" t="n">
-        <v>0</v>
+        <v>0.01653242111206055</v>
       </c>
       <c r="U201" t="n">
-        <v>0.373906135559082</v>
+        <v>0.5006401538848877</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30140,18 +30140,18 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.01302385330200195</v>
+        <v>0.01441359519958496</v>
       </c>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="n">
-        <v>0.6524684429168701</v>
+        <v>0.9156813621520996</v>
       </c>
       <c r="S202" t="n">
-        <v>0.01302385330200195</v>
+        <v>0.01441359519958496</v>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="n">
-        <v>0.6524684429168701</v>
+        <v>0.9156813621520996</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30286,22 +30286,22 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.0539546012878418</v>
+        <v>0.05411481857299805</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.03917741775512695</v>
+        <v>0.04050636291503906</v>
       </c>
       <c r="R203" t="n">
-        <v>0.691957950592041</v>
+        <v>0.8821136951446533</v>
       </c>
       <c r="S203" t="n">
-        <v>0.0539546012878418</v>
+        <v>0.05411481857299805</v>
       </c>
       <c r="T203" t="n">
-        <v>0.03917741775512695</v>
+        <v>0.04050636291503906</v>
       </c>
       <c r="U203" t="n">
-        <v>0.691957950592041</v>
+        <v>0.8821136951446533</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30434,18 +30434,18 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.06854510307312012</v>
+        <v>0.06771016120910645</v>
       </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="n">
-        <v>0.5459802150726318</v>
+        <v>0.6624782085418701</v>
       </c>
       <c r="S204" t="n">
-        <v>0.06854510307312012</v>
+        <v>0.06771016120910645</v>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>0.5459802150726318</v>
+        <v>0.6624782085418701</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30578,18 +30578,18 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.005012989044189453</v>
       </c>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="n">
-        <v>0.1333110332489014</v>
+        <v>0.1621441841125488</v>
       </c>
       <c r="S205" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.005012989044189453</v>
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>0.1333110332489014</v>
+        <v>0.1621441841125488</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30724,22 +30724,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.06400537490844727</v>
+        <v>0.06436896324157715</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.03919124603271484</v>
+        <v>0.05163240432739258</v>
       </c>
       <c r="R206" t="n">
-        <v>0.5399856567382812</v>
+        <v>0.6999199390411377</v>
       </c>
       <c r="S206" t="n">
-        <v>0.06400537490844727</v>
+        <v>0.06436896324157715</v>
       </c>
       <c r="T206" t="n">
-        <v>0.03919124603271484</v>
+        <v>0.05163240432739258</v>
       </c>
       <c r="U206" t="n">
-        <v>0.5399856567382812</v>
+        <v>0.6999199390411377</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30872,18 +30872,18 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.005752086639404297</v>
+        <v>0.009762287139892578</v>
       </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="n">
-        <v>0.07751679420471191</v>
+        <v>0.09736537933349609</v>
       </c>
       <c r="S207" t="n">
-        <v>0.005752086639404297</v>
+        <v>0.009762287139892578</v>
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>0.07751679420471191</v>
+        <v>0.09736537933349609</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31018,22 +31018,22 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.0117793083190918</v>
+        <v>0.01304221153259277</v>
       </c>
       <c r="Q208" t="n">
-        <v>0</v>
+        <v>0.01118159294128418</v>
       </c>
       <c r="R208" t="n">
-        <v>0.7346546649932861</v>
+        <v>0.8706872463226318</v>
       </c>
       <c r="S208" t="n">
-        <v>0.0117793083190918</v>
+        <v>0.01304221153259277</v>
       </c>
       <c r="T208" t="n">
-        <v>0</v>
+        <v>0.01118159294128418</v>
       </c>
       <c r="U208" t="n">
-        <v>0.7346546649932861</v>
+        <v>0.8706872463226318</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31168,22 +31168,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.06434822082519531</v>
+        <v>0.06748056411743164</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.04314756393432617</v>
+        <v>0.04988217353820801</v>
       </c>
       <c r="R209" t="n">
-        <v>0.5598766803741455</v>
+        <v>0.7206928730010986</v>
       </c>
       <c r="S209" t="n">
-        <v>0.06434822082519531</v>
+        <v>0.06748056411743164</v>
       </c>
       <c r="T209" t="n">
-        <v>0.04314756393432617</v>
+        <v>0.04988217353820801</v>
       </c>
       <c r="U209" t="n">
-        <v>0.5598766803741455</v>
+        <v>0.7206928730010986</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31316,18 +31316,18 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01078057289123535</v>
+        <v>0.01176667213439941</v>
       </c>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="n">
-        <v>0.1804454326629639</v>
+        <v>0.2382783889770508</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01078057289123535</v>
+        <v>0.01176667213439941</v>
       </c>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>0.1804454326629639</v>
+        <v>0.2382783889770508</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31460,18 +31460,18 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.01617145538330078</v>
+        <v>0.01742100715637207</v>
       </c>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="n">
-        <v>0.08119487762451172</v>
+        <v>0.1035807132720947</v>
       </c>
       <c r="S211" t="n">
-        <v>0.01617145538330078</v>
+        <v>0.01742100715637207</v>
       </c>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="n">
-        <v>0.08119487762451172</v>
+        <v>0.1035807132720947</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31606,22 +31606,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01408004760742188</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
       </c>
       <c r="R212" t="n">
-        <v>0.3630239963531494</v>
+        <v>0.5056436061859131</v>
       </c>
       <c r="S212" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01408004760742188</v>
       </c>
       <c r="T212" t="n">
         <v>0</v>
       </c>
       <c r="U212" t="n">
-        <v>0.3630239963531494</v>
+        <v>0.5056436061859131</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31754,18 +31754,18 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.009773492813110352</v>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="n">
-        <v>0.1870858669281006</v>
+        <v>0.2462401390075684</v>
       </c>
       <c r="S213" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.009773492813110352</v>
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>0.1870858669281006</v>
+        <v>0.2462401390075684</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31898,18 +31898,18 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.06399726867675781</v>
+        <v>0.0664985179901123</v>
       </c>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="n">
-        <v>0.5450794696807861</v>
+        <v>0.7281043529510498</v>
       </c>
       <c r="S214" t="n">
-        <v>0.06399726867675781</v>
+        <v>0.0664985179901123</v>
       </c>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="n">
-        <v>0.5450794696807861</v>
+        <v>0.7281043529510498</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32044,22 +32044,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.01201891899108887</v>
+        <v>0.01153421401977539</v>
       </c>
       <c r="Q215" t="n">
-        <v>0</v>
+        <v>0.008583307266235352</v>
       </c>
       <c r="R215" t="n">
-        <v>0.5804042816162109</v>
+        <v>0.7497458457946777</v>
       </c>
       <c r="S215" t="n">
-        <v>0.01201891899108887</v>
+        <v>0.01153421401977539</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>0.008583307266235352</v>
       </c>
       <c r="U215" t="n">
-        <v>0.5804042816162109</v>
+        <v>0.7497458457946777</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32194,22 +32194,22 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.01094293594360352</v>
+        <v>0.009764194488525391</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.004278421401977539</v>
+        <v>0.007756471633911133</v>
       </c>
       <c r="R216" t="n">
-        <v>0.6818032264709473</v>
+        <v>0.8985140323638916</v>
       </c>
       <c r="S216" t="n">
-        <v>0.01094293594360352</v>
+        <v>0.009764194488525391</v>
       </c>
       <c r="T216" t="n">
-        <v>0.004278421401977539</v>
+        <v>0.007756471633911133</v>
       </c>
       <c r="U216" t="n">
-        <v>0.6818032264709473</v>
+        <v>0.8985140323638916</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32344,22 +32344,22 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.02161645889282227</v>
+        <v>0</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.002837896347045898</v>
+        <v>0.0128941535949707</v>
       </c>
       <c r="R217" t="n">
-        <v>1.422260999679565</v>
+        <v>1.840851306915283</v>
       </c>
       <c r="S217" t="n">
-        <v>0.02161645889282227</v>
+        <v>0</v>
       </c>
       <c r="T217" t="n">
-        <v>0.002837896347045898</v>
+        <v>0.0128941535949707</v>
       </c>
       <c r="U217" t="n">
-        <v>1.422260999679565</v>
+        <v>1.840851306915283</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32494,22 +32494,22 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.01176166534423828</v>
+        <v>0.01376771926879883</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.003401517868041992</v>
+        <v>0.009000301361083984</v>
       </c>
       <c r="R218" t="n">
-        <v>1.106385231018066</v>
+        <v>1.435029029846191</v>
       </c>
       <c r="S218" t="n">
-        <v>0.01176166534423828</v>
+        <v>0.01376771926879883</v>
       </c>
       <c r="T218" t="n">
-        <v>0.003401517868041992</v>
+        <v>0.009000301361083984</v>
       </c>
       <c r="U218" t="n">
-        <v>1.106385231018066</v>
+        <v>1.435029029846191</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32644,22 +32644,22 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.01336026191711426</v>
+        <v>0.01377773284912109</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.0009033679962158203</v>
+        <v>0.009584188461303711</v>
       </c>
       <c r="R219" t="n">
-        <v>0.5380167961120605</v>
+        <v>0.521369457244873</v>
       </c>
       <c r="S219" t="n">
-        <v>0.01336026191711426</v>
+        <v>0.01377773284912109</v>
       </c>
       <c r="T219" t="n">
-        <v>0.0009033679962158203</v>
+        <v>0.009584188461303711</v>
       </c>
       <c r="U219" t="n">
-        <v>0.5380167961120605</v>
+        <v>0.521369457244873</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
